--- a/stats1000_Memory.xlsx
+++ b/stats1000_Memory.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="260" windowWidth="25600" windowHeight="15800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -460,7 +459,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1453">
+  <cellStyleXfs count="1473">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1914,8 +1913,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1937,13 +1956,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1453">
+  <cellStyles count="1473">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -2670,6 +2688,16 @@
     <cellStyle name="Lien hypertexte" xfId="1447" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="1449" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="1451" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1453" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1455" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1457" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1459" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1461" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1463" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1465" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1467" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1469" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1471" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -3396,6 +3424,16 @@
     <cellStyle name="Lien hypertexte visité" xfId="1448" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="1450" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="1452" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1454" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1456" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1458" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1460" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1462" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1464" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1466" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1468" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1470" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1472" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3485,11 +3523,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2029608696"/>
-        <c:axId val="-2016282888"/>
+        <c:axId val="-2123712072"/>
+        <c:axId val="-2123709592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2029608696"/>
+        <c:axId val="-2123712072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3508,7 +3546,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2016282888"/>
+        <c:crossAx val="-2123709592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3516,7 +3554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2016282888"/>
+        <c:axId val="-2123709592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3539,7 +3577,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3556,7 +3593,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2029608696"/>
+        <c:crossAx val="-2123712072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3949,11 +3986,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2066989880"/>
-        <c:axId val="-2032257240"/>
+        <c:axId val="2094164984"/>
+        <c:axId val="2094161992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2066989880"/>
+        <c:axId val="2094164984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3962,7 +3999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2032257240"/>
+        <c:crossAx val="2094161992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3970,7 +4007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2032257240"/>
+        <c:axId val="2094161992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3981,7 +4018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066989880"/>
+        <c:crossAx val="2094164984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4030,7 +4067,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>R-Chart</a:t>
+              <a:t>R-Chart COLOR</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4064,8 +4101,9 @@
           <c:h val="0.651451622216572"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4081,21 +4119,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="333399"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="333399"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
@@ -4167,7 +4191,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$H$8:$H$26</c:f>
+              <c:f>Feuil1!$G$8:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -4231,8 +4255,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2094146312"/>
+        <c:axId val="-2122362904"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -4255,6 +4293,35 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="fr-FR"/>
+                      <a:t>RBar</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
@@ -4326,7 +4393,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$8:$I$26</c:f>
+              <c:f>Feuil1!$H$8:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -4480,7 +4547,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$K$8:$K$26</c:f>
+              <c:f>Feuil1!$J$8:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -4563,6 +4630,35 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="fr-FR"/>
+                      <a:t>UCL</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
@@ -4634,7 +4730,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$J$8:$J$26</c:f>
+              <c:f>Feuil1!$I$8:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -4710,11 +4806,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2019590824"/>
-        <c:axId val="1759935592"/>
+        <c:axId val="2094146312"/>
+        <c:axId val="-2122362904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2019590824"/>
+        <c:axId val="2094146312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4738,7 +4834,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Test Periods</a:t>
+                  <a:t>Test Suites</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4747,8 +4843,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.473684308697439"/>
-              <c:y val="0.879667158661868"/>
+              <c:x val="0.473684303954759"/>
+              <c:y val="0.914519642819447"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4788,7 +4884,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1759935592"/>
+        <c:crossAx val="-2122362904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4798,7 +4894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1759935592"/>
+        <c:axId val="-2122362904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4832,7 +4928,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Defects</a:t>
+                  <a:t>Memory variation</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4882,7 +4978,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2019590824"/>
+        <c:crossAx val="2094146312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4970,7 +5066,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>R-Chart</a:t>
+              <a:t>R-Chart CORE</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5004,8 +5100,9 @@
           <c:h val="0.651451622216572"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5021,21 +5118,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="333399"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="333399"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
@@ -5107,7 +5190,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$H$32:$H$82</c:f>
+              <c:f>Feuil1!$G$32:$G$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -5267,8 +5350,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2071057688"/>
+        <c:axId val="2071051528"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -5291,6 +5388,36 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="50"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="fr-FR"/>
+                      <a:t>RBar</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
@@ -5362,7 +5489,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$32:$I$82</c:f>
+              <c:f>Feuil1!$H$32:$H$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -5612,7 +5739,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$K$32:$K$82</c:f>
+              <c:f>Feuil1!$J$32:$J$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -5791,6 +5918,36 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="50"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="fr-FR"/>
+                      <a:t>UCL</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
@@ -5862,7 +6019,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$J$32:$J$82</c:f>
+              <c:f>Feuil1!$I$32:$I$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -6034,11 +6191,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2077346168"/>
-        <c:axId val="-2098334808"/>
+        <c:axId val="2071057688"/>
+        <c:axId val="2071051528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2077346168"/>
+        <c:axId val="2071057688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6062,7 +6219,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Test Periods</a:t>
+                  <a:t>Test Suites</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6112,7 +6269,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098334808"/>
+        <c:crossAx val="2071051528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6122,7 +6279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098334808"/>
+        <c:axId val="2071051528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6156,7 +6313,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Defects</a:t>
+                  <a:t>Memory variation</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6165,8 +6322,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0203735186536533"/>
-              <c:y val="0.419086712381361"/>
+              <c:x val="0.0107117045151965"/>
+              <c:y val="0.41640581790547"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6206,7 +6363,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2077346168"/>
+        <c:crossAx val="2071057688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6294,7 +6451,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>R-Chart</a:t>
+              <a:t>R-Chart HXMATH</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6328,8 +6485,9 @@
           <c:h val="0.651451622216572"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -6345,21 +6503,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="333399"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="333399"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
@@ -6431,7 +6575,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$H$88:$H$93</c:f>
+              <c:f>Feuil1!$G$88:$G$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6456,8 +6600,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2123046696"/>
+        <c:axId val="-2123052856"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -6480,6 +6638,36 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="fr-FR"/>
+                      <a:t>RBar</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
@@ -6551,7 +6739,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$88:$I$93</c:f>
+              <c:f>Feuil1!$H$88:$H$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6666,7 +6854,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$K$88:$K$93</c:f>
+              <c:f>Feuil1!$J$88:$J$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6710,6 +6898,36 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="fr-FR"/>
+                      <a:t>UCL</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
@@ -6781,7 +6999,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$J$88:$J$93</c:f>
+              <c:f>Feuil1!$I$88:$I$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6818,11 +7036,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1774950968"/>
-        <c:axId val="1773910584"/>
+        <c:axId val="-2123046696"/>
+        <c:axId val="-2123052856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1774950968"/>
+        <c:axId val="-2123046696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6846,7 +7064,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Test Periods</a:t>
+                  <a:t>Test Suites</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6896,7 +7114,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1773910584"/>
+        <c:crossAx val="-2123052856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6906,7 +7124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1773910584"/>
+        <c:axId val="-2123052856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6940,7 +7158,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Defects</a:t>
+                  <a:t>Memory variation</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6949,8 +7167,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0203735186536533"/>
-              <c:y val="0.419086712381361"/>
+              <c:x val="0.00910139855706442"/>
+              <c:y val="0.392277131578392"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6990,7 +7208,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1774950968"/>
+        <c:crossAx val="-2123046696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7078,7 +7296,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>R-Chart</a:t>
+              <a:t>R-Chart FORMAT </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7112,8 +7330,9 @@
           <c:h val="0.651451622216572"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -7129,21 +7348,7 @@
               <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="333399"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="333399"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
@@ -7215,7 +7420,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$H$99:$H$102</c:f>
+              <c:f>Feuil1!$G$99:$G$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7234,8 +7439,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2070999368"/>
+        <c:axId val="2070993208"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -7258,6 +7477,35 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="fr-FR"/>
+                      <a:t>RBar</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
@@ -7329,7 +7577,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$I$99:$I$102</c:f>
+              <c:f>Feuil1!$H$99:$H$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7438,7 +7686,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$K$99:$K$102</c:f>
+              <c:f>Feuil1!$J$99:$J$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7476,6 +7724,35 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="fr-FR"/>
+                      <a:t>UCL</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
@@ -7547,7 +7824,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$J$99:$J$102</c:f>
+              <c:f>Feuil1!$I$99:$I$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7578,11 +7855,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2053824136"/>
-        <c:axId val="-2014453304"/>
+        <c:axId val="2070999368"/>
+        <c:axId val="2070993208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2053824136"/>
+        <c:axId val="2070999368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7606,7 +7883,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Test Periods</a:t>
+                  <a:t>Test Suites</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7656,7 +7933,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2014453304"/>
+        <c:crossAx val="2070993208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7666,7 +7943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2014453304"/>
+        <c:axId val="2070993208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7700,7 +7977,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Defects</a:t>
+                  <a:t>Memory variation</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7750,7 +8027,2440 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2053824136"/>
+        <c:crossAx val="2070999368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="808080"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1150" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>R-Chart PROMISE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.450440108029974"/>
+          <c:y val="0.0399968671024875"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0848896610568887"/>
+          <c:y val="0.186721802546151"/>
+          <c:w val="0.898132613981883"/>
+          <c:h val="0.651451622216572"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Defects</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$G$107:$G$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.627906976744186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.041376668156567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.87554585152839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2071167576"/>
+        <c:axId val="-2071161432"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>R</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:srgbClr val="339966"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="fr-FR"/>
+                      <a:t>RBar</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$H$107:$H$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.181609832143045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.181609832143045</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.181609832143045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Lower Control Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="900000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$J$107:$J$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Upper Control Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="900000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="fr-FR"/>
+                      <a:t>UCL</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$I$107:$I$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15.1819231851504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.1819231851504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.1819231851504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2071167576"/>
+        <c:axId val="-2071161432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2071167576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1125" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Test Suites</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.473684308697439"/>
+              <c:y val="0.879667158661868"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1150" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2071161432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2071161432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1125" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Memory variation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0203735186536533"/>
+              <c:y val="0.419086712381361"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000090"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1150" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2071167576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="808080"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1150" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>R-Chart CULTURE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.450440108029974"/>
+          <c:y val="0.0399968671024875"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0848896610568887"/>
+          <c:y val="0.186721802546151"/>
+          <c:w val="0.898132613981883"/>
+          <c:h val="0.651451622216572"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Defects</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$G$119:$G$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.765182186234818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.08156028368794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.855106888361045</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.70752688172043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2071100248"/>
+        <c:axId val="-2071094104"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>R</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:srgbClr val="339966"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="fr-FR"/>
+                      <a:t>RBar</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$H$119:$H$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.352344060001057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.352344060001057</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.352344060001057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.352344060001057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Lower Control Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="900000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$J$119:$J$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Upper Control Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="900000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="fr-FR"/>
+                      <a:t>UCL</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$I$119:$I$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.54285534284223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.54285534284223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.54285534284223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.54285534284223</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2071100248"/>
+        <c:axId val="-2071094104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2071100248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1125" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Test Suites</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.473684308697439"/>
+              <c:y val="0.879667158661868"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1150" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2071094104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2071094104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1125" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Memory variation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0203735186536533"/>
+              <c:y val="0.419086712381361"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000090"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1150" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2071100248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="808080"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1150" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>R-Chart MATH</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.450440108029974"/>
+          <c:y val="0.0399968671024875"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0848896610568887"/>
+          <c:y val="0.186721802546151"/>
+          <c:w val="0.898132613981883"/>
+          <c:h val="0.651451622216572"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Defects</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="333399"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$G$128:$G$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.12046465572026</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.751389992057188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>519.168918918919</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2071036072"/>
+        <c:axId val="-2071029928"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>R</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:srgbClr val="339966"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="fr-FR"/>
+                      <a:t>RBar</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$H$128:$H$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>175.0135911888988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175.0135911888988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175.0135911888988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Lower Control Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="900000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$J$128:$J$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Upper Control Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="900000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="fr-FR"/>
+                      <a:t>UCL</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Setup Data'!$B$43:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$I$128:$I$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>369.978731773332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>369.978731773332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>369.978731773332</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2071036072"/>
+        <c:axId val="-2071029928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2071036072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1125" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Test Suites</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.473684308697439"/>
+              <c:y val="0.879667158661868"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1150" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2071029928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2071029928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1125" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Memory variation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0203735186536533"/>
+              <c:y val="0.419086712381361"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000090"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1150" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2071036072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7935,15 +10645,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7966,16 +10676,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7991,6 +10701,102 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8109,81 +10915,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="c-Chart"/>
-      <sheetName val="Feuil1"/>
-      <sheetName val="Feuil2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="98">
-          <cell r="G98">
-            <v>1.0292479108635098</v>
-          </cell>
-          <cell r="H98">
-            <v>29.355456813970598</v>
-          </cell>
-          <cell r="I98">
-            <v>62.057435704733841</v>
-          </cell>
-          <cell r="J98">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="G99">
-            <v>69.660799238820175</v>
-          </cell>
-          <cell r="H99">
-            <v>29.355456813970598</v>
-          </cell>
-          <cell r="I99">
-            <v>62.057435704733841</v>
-          </cell>
-          <cell r="J99">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="G100">
-            <v>42.805406479825081</v>
-          </cell>
-          <cell r="H100">
-            <v>29.355456813970598</v>
-          </cell>
-          <cell r="I100">
-            <v>62.057435704733841</v>
-          </cell>
-          <cell r="J100">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="G101">
-            <v>3.9263736263736266</v>
-          </cell>
-          <cell r="H101">
-            <v>29.355456813970598</v>
-          </cell>
-          <cell r="I101">
-            <v>62.057435704733841</v>
-          </cell>
-          <cell r="J101">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8513,8 +11245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:BJ158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="I37" workbookViewId="0">
+      <selection activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8563,16 +11295,16 @@
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="I7" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" s="1" t="s">
         <v>112</v>
       </c>
       <c r="AQ7" s="2" t="s">
@@ -8598,22 +11330,18 @@
         <v>28.703349282296649</v>
       </c>
       <c r="G8" s="4">
-        <f>(_xlfn.STDEV.S(B8:F8))/0.856064</f>
-        <v>13.904557882600637</v>
+        <f t="shared" ref="G8:G26" si="0">MAX(B8:F8)-MIN(B8:F8)</f>
+        <v>27.703349282296649</v>
       </c>
       <c r="H8" s="4">
-        <f>MAX(B8:F8)-MIN(B8:F8)</f>
-        <v>27.703349282296649</v>
-      </c>
-      <c r="I8" s="4">
-        <f>$H$27</f>
+        <f t="shared" ref="H8:H26" si="1">$G$27</f>
         <v>18.191368469642828</v>
       </c>
+      <c r="I8">
+        <f>H8*2.114</f>
+        <v>38.456552944824935</v>
+      </c>
       <c r="J8">
-        <f>$H$27*2.114</f>
-        <v>38.456552944824935</v>
-      </c>
-      <c r="K8">
         <v>0</v>
       </c>
       <c r="AA8" s="1" t="s">
@@ -8668,22 +11396,18 @@
         <v>3.3571428571428572</v>
       </c>
       <c r="G9" s="4">
-        <f>(_xlfn.STDEV.S(B9:F9))/1.089536</f>
-        <v>0.98877335290432888</v>
+        <f t="shared" si="0"/>
+        <v>2.5714285714285716</v>
       </c>
       <c r="H9" s="4">
-        <f>MAX(B9:F9)-MIN(B9:F9)</f>
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="I9" s="4">
-        <f t="shared" ref="I9:I26" si="0">$H$27</f>
+        <f t="shared" si="1"/>
         <v>18.191368469642828</v>
       </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I25" si="2">H9*2.114</f>
+        <v>38.456552944824935</v>
+      </c>
       <c r="J9">
-        <f t="shared" ref="J9:J26" si="1">$H$27*2.114</f>
-        <v>38.456552944824935</v>
-      </c>
-      <c r="K9">
         <v>0</v>
       </c>
       <c r="AA9" t="s">
@@ -8795,22 +11519,18 @@
         <v>0.47255369928400953</v>
       </c>
       <c r="G10" s="4">
-        <f>(_xlfn.STDEV.S(B10:F10))/1.716224</f>
-        <v>0.30085337186442668</v>
+        <f t="shared" si="0"/>
+        <v>1.305489260143198</v>
       </c>
       <c r="H10" s="4">
-        <f>MAX(B10:F10)-MIN(B10:F10)</f>
-        <v>1.305489260143198</v>
-      </c>
-      <c r="I10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.191368469642828</v>
       </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>38.456552944824935</v>
+      </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>38.456552944824935</v>
-      </c>
-      <c r="K10">
         <v>0</v>
       </c>
       <c r="R10" s="8" t="s">
@@ -8846,26 +11566,26 @@
       <c r="AC10" s="16">
         <v>1362.5548799999999</v>
       </c>
-      <c r="AD10" s="21">
+      <c r="AD10" s="20">
         <f>AC10/AA10</f>
         <v>1.512773265238148</v>
       </c>
       <c r="AE10" s="16">
         <v>2275.4918400000001</v>
       </c>
-      <c r="AF10" s="21" t="s">
+      <c r="AF10" s="20" t="s">
         <v>92</v>
       </c>
       <c r="AG10" s="16">
         <v>1283.3095679999999</v>
       </c>
-      <c r="AH10" s="21" t="s">
+      <c r="AH10" s="20" t="s">
         <v>98</v>
       </c>
       <c r="AI10" s="16">
         <v>758.788096</v>
       </c>
-      <c r="AJ10" s="21" t="s">
+      <c r="AJ10" s="20" t="s">
         <v>100</v>
       </c>
       <c r="AM10" s="7"/>
@@ -8968,22 +11688,18 @@
         <v>82.461165048543691</v>
       </c>
       <c r="G11" s="4">
-        <f>(_xlfn.STDEV.S(B11:F11))/0.843776</f>
-        <v>42.613360780799553</v>
+        <f t="shared" si="0"/>
+        <v>81.461165048543691</v>
       </c>
       <c r="H11" s="4">
-        <f>MAX(B11:F11)-MIN(B11:F11)</f>
-        <v>81.461165048543691</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.191368469642828</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>38.456552944824935</v>
+      </c>
       <c r="J11">
-        <f t="shared" si="1"/>
-        <v>38.456552944824935</v>
-      </c>
-      <c r="K11">
         <v>0</v>
       </c>
       <c r="R11" s="8" t="s">
@@ -9019,26 +11735,26 @@
       <c r="AC11" s="16">
         <v>819.92499199999997</v>
       </c>
-      <c r="AD11" s="21">
-        <f t="shared" ref="AD11:AD15" si="2">AC11/AA11</f>
+      <c r="AD11" s="20">
+        <f t="shared" ref="AD11:AD15" si="3">AC11/AA11</f>
         <v>3.2406821548555391</v>
       </c>
       <c r="AE11" s="16">
         <v>923.99206400000003</v>
       </c>
-      <c r="AF11" s="21" t="s">
+      <c r="AF11" s="20" t="s">
         <v>93</v>
       </c>
       <c r="AG11" s="16">
         <v>327.60627199999999</v>
       </c>
-      <c r="AH11" s="21" t="s">
+      <c r="AH11" s="20" t="s">
         <v>99</v>
       </c>
       <c r="AI11" s="16">
         <v>2189.8649599999999</v>
       </c>
-      <c r="AJ11" s="21" t="s">
+      <c r="AJ11" s="20" t="s">
         <v>103</v>
       </c>
       <c r="AM11" s="7"/>
@@ -9066,22 +11782,18 @@
         <v>109.69135802469135</v>
       </c>
       <c r="G12" s="4">
-        <f>(_xlfn.STDEV.S(B12:F12))/0.663552</f>
-        <v>72.194771379094178</v>
+        <f t="shared" si="0"/>
+        <v>108.69135802469135</v>
       </c>
       <c r="H12" s="4">
-        <f>MAX(B12:F12)-MIN(B12:F12)</f>
-        <v>108.69135802469135</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.191368469642828</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>38.456552944824935</v>
+      </c>
       <c r="J12">
-        <f t="shared" si="1"/>
-        <v>38.456552944824935</v>
-      </c>
-      <c r="K12">
         <v>0</v>
       </c>
       <c r="S12" t="s">
@@ -9114,26 +11826,26 @@
       <c r="AC12" s="16">
         <v>768.22118399999999</v>
       </c>
-      <c r="AD12" s="21">
-        <f t="shared" si="2"/>
+      <c r="AD12" s="20">
+        <f t="shared" si="3"/>
         <v>2.5346305849747601</v>
       </c>
       <c r="AE12" s="16">
         <v>618.42227200000002</v>
       </c>
-      <c r="AF12" s="21" t="s">
+      <c r="AF12" s="20" t="s">
         <v>94</v>
       </c>
       <c r="AG12" s="16">
         <v>235.75347199999999</v>
       </c>
-      <c r="AH12" s="21" t="s">
+      <c r="AH12" s="20" t="s">
         <v>100</v>
       </c>
       <c r="AI12" s="16">
         <v>1237.151744</v>
       </c>
-      <c r="AJ12" s="21" t="s">
+      <c r="AJ12" s="20" t="s">
         <v>104</v>
       </c>
       <c r="AM12" s="7"/>
@@ -9148,35 +11860,31 @@
       <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>0.66103921480212235</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>1.6700184876223116</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>0.94184064571402804</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>0.55688626354631676</v>
       </c>
-      <c r="G13" s="18">
-        <f>(_xlfn.STDEV.S(B13:F13))/1362.55488</f>
-        <v>3.1943384526150726E-4</v>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1131322240759949</v>
       </c>
       <c r="H13" s="4">
-        <f>MAX(B13:F13)-MIN(B13:F13)</f>
-        <v>1.1131322240759949</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.191368469642828</v>
       </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>38.456552944824935</v>
+      </c>
       <c r="J13">
-        <f t="shared" si="1"/>
-        <v>38.456552944824935</v>
-      </c>
-      <c r="K13">
         <v>0</v>
       </c>
       <c r="S13" t="s">
@@ -9209,26 +11917,26 @@
       <c r="AC13" s="16">
         <v>335.50335999999999</v>
       </c>
-      <c r="AD13" s="21">
-        <f t="shared" si="2"/>
+      <c r="AD13" s="20">
+        <f t="shared" si="3"/>
         <v>3.225993846153846</v>
       </c>
       <c r="AE13" s="16">
         <v>296.43161600000002</v>
       </c>
-      <c r="AF13" s="21" t="s">
+      <c r="AF13" s="20" t="s">
         <v>95</v>
       </c>
       <c r="AG13" s="16">
         <v>156.40985599999999</v>
       </c>
-      <c r="AH13" s="21" t="s">
+      <c r="AH13" s="20" t="s">
         <v>91</v>
       </c>
       <c r="AI13" s="16">
         <v>1192.9804799999999</v>
       </c>
-      <c r="AJ13" s="21" t="s">
+      <c r="AJ13" s="20" t="s">
         <v>105</v>
       </c>
       <c r="AM13" s="7"/>
@@ -9256,22 +11964,18 @@
         <v>16.293333333333333</v>
       </c>
       <c r="G14" s="4">
-        <f>(_xlfn.STDEV.S(B14:F14))/1.8432</f>
-        <v>3.5737911123660004</v>
+        <f t="shared" si="0"/>
+        <v>15.293333333333333</v>
       </c>
       <c r="H14" s="4">
-        <f>MAX(B14:F14)-MIN(B14:F14)</f>
-        <v>15.293333333333333</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.191368469642828</v>
       </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>38.456552944824935</v>
+      </c>
       <c r="J14">
-        <f t="shared" si="1"/>
-        <v>38.456552944824935</v>
-      </c>
-      <c r="K14">
         <v>0</v>
       </c>
       <c r="S14" t="s">
@@ -9304,26 +12008,26 @@
       <c r="AC14" s="16">
         <v>389.72620799999999</v>
       </c>
-      <c r="AD14" s="21">
-        <f t="shared" si="2"/>
+      <c r="AD14" s="20">
+        <f t="shared" si="3"/>
         <v>3.4896687679083089</v>
       </c>
       <c r="AE14" s="16">
         <v>273.12128000000001</v>
       </c>
-      <c r="AF14" s="21" t="s">
+      <c r="AF14" s="20" t="s">
         <v>96</v>
       </c>
       <c r="AG14" s="16">
         <v>136.48691199999999</v>
       </c>
-      <c r="AH14" s="21" t="s">
+      <c r="AH14" s="20" t="s">
         <v>101</v>
       </c>
       <c r="AI14" s="16">
         <v>1146.052608</v>
       </c>
-      <c r="AJ14" s="21" t="s">
+      <c r="AJ14" s="20" t="s">
         <v>106</v>
       </c>
       <c r="AM14" s="7"/>
@@ -9351,22 +12055,18 @@
         <v>1.8057553956834531</v>
       </c>
       <c r="G15" s="4">
-        <f>(_xlfn.STDEV.S(B15:F15))/0.569344</f>
-        <v>3.7796860093935529</v>
+        <f t="shared" si="0"/>
+        <v>5.1007194244604319</v>
       </c>
       <c r="H15" s="4">
-        <f>MAX(B15:F15)-MIN(B15:F15)</f>
-        <v>5.1007194244604319</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.191368469642828</v>
       </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>38.456552944824935</v>
+      </c>
       <c r="J15">
-        <f t="shared" si="1"/>
-        <v>38.456552944824935</v>
-      </c>
-      <c r="K15">
         <v>0</v>
       </c>
       <c r="S15" t="s">
@@ -9399,26 +12099,26 @@
       <c r="AC15" s="16">
         <v>831.44294400000001</v>
       </c>
-      <c r="AD15" s="21">
-        <f t="shared" si="2"/>
+      <c r="AD15" s="20">
+        <f t="shared" si="3"/>
         <v>1.6842420775432483</v>
       </c>
       <c r="AE15" s="16">
         <v>1492.9715200000001</v>
       </c>
-      <c r="AF15" s="21" t="s">
+      <c r="AF15" s="20" t="s">
         <v>97</v>
       </c>
       <c r="AG15" s="16">
         <v>806.33036800000002</v>
       </c>
-      <c r="AH15" s="21" t="s">
+      <c r="AH15" s="20" t="s">
         <v>102</v>
       </c>
       <c r="AI15" s="16">
         <v>3088.1546239999998</v>
       </c>
-      <c r="AJ15" s="21" t="s">
+      <c r="AJ15" s="20" t="s">
         <v>107</v>
       </c>
       <c r="AM15" s="7"/>
@@ -9446,22 +12146,18 @@
         <v>0.91588785046728971</v>
       </c>
       <c r="G16" s="4">
-        <f>(_xlfn.STDEV.S(B16:F16))/1.753088</f>
-        <v>0.63294354628641758</v>
+        <f t="shared" si="0"/>
+        <v>2.7570093457943923</v>
       </c>
       <c r="H16" s="4">
-        <f>MAX(B16:F16)-MIN(B16:F16)</f>
-        <v>2.7570093457943923</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.191368469642828</v>
       </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>38.456552944824935</v>
+      </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>38.456552944824935</v>
-      </c>
-      <c r="K16">
         <v>0</v>
       </c>
       <c r="S16" t="s">
@@ -9508,22 +12204,18 @@
         <v>1.6745562130177516</v>
       </c>
       <c r="G17" s="4">
-        <f>(_xlfn.STDEV.S(B17:F17))/0.692224</f>
-        <v>2.6544567498003775</v>
+        <f t="shared" si="0"/>
+        <v>4.8047337278106506</v>
       </c>
       <c r="H17" s="4">
-        <f>MAX(B17:F17)-MIN(B17:F17)</f>
-        <v>4.8047337278106506</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.191368469642828</v>
       </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>38.456552944824935</v>
+      </c>
       <c r="J17">
-        <f t="shared" si="1"/>
-        <v>38.456552944824935</v>
-      </c>
-      <c r="K17">
         <v>0</v>
       </c>
       <c r="S17" t="s">
@@ -9564,22 +12256,18 @@
         <v>0.56878850102669409</v>
       </c>
       <c r="G18" s="4">
-        <f>(_xlfn.STDEV.S(B18:F18))/1.994752</f>
-        <v>0.14447149671022713</v>
+        <f t="shared" si="0"/>
+        <v>0.69404517453798764</v>
       </c>
       <c r="H18" s="4">
-        <f>MAX(B18:F18)-MIN(B18:F18)</f>
-        <v>0.69404517453798764</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.191368469642828</v>
       </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>38.456552944824935</v>
+      </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>38.456552944824935</v>
-      </c>
-      <c r="K18">
         <v>0</v>
       </c>
       <c r="R18" s="8" t="s">
@@ -9627,22 +12315,18 @@
         <v>0.64462809917355368</v>
       </c>
       <c r="G19" s="4">
-        <f>(_xlfn.STDEV.S(B19:F19))/1.486848</f>
-        <v>0.50228349027892527</v>
+        <f t="shared" si="0"/>
+        <v>1.6005509641873279</v>
       </c>
       <c r="H19" s="4">
-        <f>MAX(B19:F19)-MIN(B19:F19)</f>
-        <v>1.6005509641873279</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.191368469642828</v>
       </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>38.456552944824935</v>
+      </c>
       <c r="J19">
-        <f t="shared" si="1"/>
-        <v>38.456552944824935</v>
-      </c>
-      <c r="K19">
         <v>0</v>
       </c>
       <c r="S19" t="s">
@@ -9704,22 +12388,18 @@
         <v>1.1558441558441557</v>
       </c>
       <c r="G20" s="4">
-        <f>(_xlfn.STDEV.S(B20:F20))/0.946176</f>
-        <v>0.51125368697525897</v>
+        <f t="shared" si="0"/>
+        <v>1.2380952380952381</v>
       </c>
       <c r="H20" s="4">
-        <f>MAX(B20:F20)-MIN(B20:F20)</f>
-        <v>1.2380952380952381</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.191368469642828</v>
       </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>38.456552944824935</v>
+      </c>
       <c r="J20">
-        <f t="shared" si="1"/>
-        <v>38.456552944824935</v>
-      </c>
-      <c r="K20">
         <v>0</v>
       </c>
       <c r="S20" t="s">
@@ -9784,22 +12464,18 @@
         <v>64.450881612090683</v>
       </c>
       <c r="G21" s="4">
-        <f>(_xlfn.STDEV.S(B21:F21))/1.626112</f>
-        <v>17.358847681449511</v>
+        <f t="shared" si="0"/>
+        <v>63.450881612090683</v>
       </c>
       <c r="H21" s="4">
-        <f>MAX(B21:F21)-MIN(B21:F21)</f>
-        <v>63.450881612090683</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.191368469642828</v>
       </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>38.456552944824935</v>
+      </c>
       <c r="J21">
-        <f t="shared" si="1"/>
-        <v>38.456552944824935</v>
-      </c>
-      <c r="K21">
         <v>0</v>
       </c>
       <c r="S21" t="s">
@@ -9864,22 +12540,18 @@
         <v>18.743303571428573</v>
       </c>
       <c r="G22" s="4">
-        <f>(_xlfn.STDEV.S(B22:F22))/1.835008</f>
-        <v>4.2873578907582912</v>
+        <f t="shared" si="0"/>
+        <v>18.095982142857146</v>
       </c>
       <c r="H22" s="4">
-        <f>MAX(B22:F22)-MIN(B22:F22)</f>
-        <v>18.095982142857146</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.191368469642828</v>
       </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>38.456552944824935</v>
+      </c>
       <c r="J22">
-        <f t="shared" si="1"/>
-        <v>38.456552944824935</v>
-      </c>
-      <c r="K22">
         <v>0</v>
       </c>
       <c r="S22" t="s">
@@ -9944,22 +12616,18 @@
         <v>1.0094117647058825</v>
       </c>
       <c r="G23" s="4">
-        <f>(_xlfn.STDEV.S(B23:F23))/1.7408</f>
-        <v>0.3739006321521634</v>
+        <f t="shared" si="0"/>
+        <v>1.7411764705882358</v>
       </c>
       <c r="H23" s="4">
-        <f>MAX(B23:F23)-MIN(B23:F23)</f>
-        <v>1.7411764705882358</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.191368469642828</v>
       </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>38.456552944824935</v>
+      </c>
       <c r="J23">
-        <f t="shared" si="1"/>
-        <v>38.456552944824935</v>
-      </c>
-      <c r="K23">
         <v>0</v>
       </c>
       <c r="S23" t="s">
@@ -10024,22 +12692,18 @@
         <v>1.653846153846154</v>
       </c>
       <c r="G24" s="4">
-        <f>(_xlfn.STDEV.S(B24:F24))/0.53248</f>
-        <v>2.5453720906820747</v>
+        <f t="shared" si="0"/>
+        <v>3.3076923076923075</v>
       </c>
       <c r="H24" s="4">
-        <f>MAX(B24:F24)-MIN(B24:F24)</f>
-        <v>3.3076923076923075</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.191368469642828</v>
       </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>38.456552944824935</v>
+      </c>
       <c r="J24">
-        <f t="shared" si="1"/>
-        <v>38.456552944824935</v>
-      </c>
-      <c r="K24">
         <v>0</v>
       </c>
       <c r="S24" t="s">
@@ -10104,22 +12768,18 @@
         <v>1.1389961389961389</v>
       </c>
       <c r="G25" s="4">
-        <f>(_xlfn.STDEV.S(B25:F25))/1.060864</f>
-        <v>0.86283395448536659</v>
+        <f t="shared" si="0"/>
+        <v>2.3436293436293436</v>
       </c>
       <c r="H25" s="4">
-        <f>MAX(B25:F25)-MIN(B25:F25)</f>
-        <v>2.3436293436293436</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.191368469642828</v>
       </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>38.456552944824935</v>
+      </c>
       <c r="J25">
-        <f t="shared" si="1"/>
-        <v>38.456552944824935</v>
-      </c>
-      <c r="K25">
         <v>0</v>
       </c>
       <c r="S25" t="s">
@@ -10171,35 +12831,31 @@
       <c r="B26" s="4">
         <v>1</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="17">
         <v>0.30858190501406257</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="17">
         <v>1.126922673434011</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="17">
         <v>0.3995563925925556</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="17">
         <v>2.6708113319712052</v>
       </c>
-      <c r="G26" s="18">
-        <f>(_xlfn.STDEV.S(B26:F26))/819.924992</f>
-        <v>1.1562538210904132E-3</v>
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3622294269571427</v>
       </c>
       <c r="H26" s="4">
-        <f>MAX(B26:F26)-MIN(B26:F26)</f>
-        <v>2.3622294269571427</v>
-      </c>
-      <c r="I26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.191368469642828</v>
       </c>
+      <c r="I26">
+        <f>H26*2.114</f>
+        <v>38.456552944824935</v>
+      </c>
       <c r="J26">
-        <f t="shared" si="1"/>
-        <v>38.456552944824935</v>
-      </c>
-      <c r="K26">
         <v>0</v>
       </c>
       <c r="S26" t="s">
@@ -10241,8 +12897,8 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="H27" s="4">
-        <f>AVERAGE(H8:H26)</f>
+      <c r="G27" s="4">
+        <f>AVERAGE(G8:G26)</f>
         <v>18.191368469642828</v>
       </c>
       <c r="S27" t="s">
@@ -10410,16 +13066,16 @@
       <c r="F31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="H31" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="I31" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K31" s="1" t="s">
         <v>112</v>
       </c>
       <c r="S31" t="s">
@@ -10441,11 +13097,11 @@
         <v>15.396996010000001</v>
       </c>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="20"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
       <c r="AF31" s="2"/>
       <c r="AQ31" s="2" t="s">
         <v>17</v>
@@ -10469,23 +13125,19 @@
       <c r="F32" s="4">
         <v>1.127962085308057</v>
       </c>
-      <c r="G32">
-        <f t="shared" ref="G32:G82" si="3">_xlfn.STDEV.S(B32:F32)</f>
-        <v>1.6244956437149556</v>
+      <c r="G32" s="4">
+        <f t="shared" ref="G32:G63" si="4">MAX(B32:F32)-MIN(B32:F32)</f>
+        <v>3.7488151658767777</v>
       </c>
       <c r="H32" s="4">
-        <f>MAX(B32:F32)-MIN(B32:F32)</f>
-        <v>3.7488151658767777</v>
-      </c>
-      <c r="I32" s="4">
-        <f>$H$83</f>
+        <f t="shared" ref="H32:H63" si="5">$G$83</f>
         <v>46.227793870138029</v>
       </c>
+      <c r="I32">
+        <f>H32*2.114</f>
+        <v>97.725556241471793</v>
+      </c>
       <c r="J32">
-        <f>$H$83*2.114</f>
-        <v>97.725556241471793</v>
-      </c>
-      <c r="K32">
         <v>0</v>
       </c>
       <c r="S32" t="s">
@@ -10507,11 +13159,11 @@
         <v>37.005163400000001</v>
       </c>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
       <c r="AF32" s="2"/>
       <c r="AQ32" s="2" t="s">
         <v>22</v>
@@ -10547,23 +13199,19 @@
       <c r="F33" s="4">
         <v>1.2447257383966246</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="3"/>
-        <v>1.2025153600200083</v>
+      <c r="G33" s="4">
+        <f t="shared" si="4"/>
+        <v>2.8438818565400847</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" ref="H33:H82" si="4">MAX(B33:F33)-MIN(B33:F33)</f>
-        <v>2.8438818565400847</v>
-      </c>
-      <c r="I33" s="4">
-        <f t="shared" ref="I33:I82" si="5">$H$83</f>
+        <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
+      <c r="I33">
+        <f t="shared" ref="I33:I82" si="6">H33*2.114</f>
+        <v>97.725556241471793</v>
+      </c>
       <c r="J33">
-        <f t="shared" ref="J33:J82" si="6">$H$83*2.114</f>
-        <v>97.725556241471793</v>
-      </c>
-      <c r="K33">
         <v>0</v>
       </c>
       <c r="S33" t="s">
@@ -10585,11 +13233,11 @@
         <v>23.285209649999999</v>
       </c>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
-      <c r="AD33" s="20"/>
-      <c r="AE33" s="20"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
       <c r="AF33" s="2"/>
       <c r="AQ33" s="2" t="s">
         <v>23</v>
@@ -10669,23 +13317,19 @@
       <c r="F34" s="4">
         <v>3.6102941176470589</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="3"/>
-        <v>1.0713313516610554</v>
-      </c>
-      <c r="H34" s="4">
+      <c r="G34" s="4">
         <f t="shared" si="4"/>
         <v>2.6102941176470589</v>
       </c>
-      <c r="I34" s="4">
+      <c r="H34" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J34">
+      <c r="I34">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K34">
+      <c r="J34">
         <v>0</v>
       </c>
       <c r="S34" t="s">
@@ -10707,11 +13351,11 @@
         <v>1.2805074759999999</v>
       </c>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
       <c r="AF34" s="2"/>
       <c r="AQ34" s="2">
         <f>AVERAGEA(B32:B82)</f>
@@ -10799,35 +13443,31 @@
       <c r="B35" s="4">
         <v>1</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="17">
         <v>0.39454770359469804</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="17">
         <v>0.80500549175170888</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="17">
         <v>0.30688228456871086</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="17">
         <v>1.6104108683365856</v>
       </c>
-      <c r="G35" s="17">
-        <f t="shared" si="3"/>
-        <v>0.52478968706003792</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="G35" s="4">
         <f t="shared" si="4"/>
         <v>1.3035285837678747</v>
       </c>
-      <c r="I35" s="4">
+      <c r="H35" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J35">
+      <c r="I35">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K35">
+      <c r="J35">
         <v>0</v>
       </c>
       <c r="R35" t="s">
@@ -10852,11 +13492,11 @@
         <v>17.68914629</v>
       </c>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="20"/>
-      <c r="AD35" s="20"/>
-      <c r="AE35" s="20"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
       <c r="AF35" s="2"/>
       <c r="AQ35" s="2"/>
       <c r="AR35" s="2"/>
@@ -10883,23 +13523,19 @@
       <c r="F36" s="4">
         <v>118.20297029702969</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="3"/>
-        <v>50.701105295916619</v>
-      </c>
-      <c r="H36" s="4">
+      <c r="G36" s="4">
         <f t="shared" si="4"/>
         <v>117.20297029702969</v>
       </c>
-      <c r="I36" s="4">
+      <c r="H36" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J36">
+      <c r="I36">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K36">
+      <c r="J36">
         <v>0</v>
       </c>
       <c r="S36" t="s">
@@ -10921,11 +13557,11 @@
         <v>46.132304320000003</v>
       </c>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
-      <c r="AD36" s="20"/>
-      <c r="AE36" s="20"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
       <c r="AF36" s="2"/>
       <c r="AQ36" s="2"/>
       <c r="AR36" s="2"/>
@@ -10952,23 +13588,19 @@
       <c r="F37" s="4">
         <v>1.811026761977905</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="3"/>
-        <v>0.7339568431646234</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="G37" s="4">
         <f t="shared" si="4"/>
         <v>1.8070390500384002</v>
       </c>
-      <c r="I37" s="4">
+      <c r="H37" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J37">
+      <c r="I37">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K37">
+      <c r="J37">
         <v>0</v>
       </c>
       <c r="R37" s="8" t="s">
@@ -10996,8 +13628,8 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
       <c r="AF37" s="2"/>
       <c r="AQ37" s="2"/>
       <c r="AR37" s="2"/>
@@ -11024,23 +13656,19 @@
       <c r="F38" s="4">
         <v>69.534591194968556</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="3"/>
-        <v>30.239950041910479</v>
-      </c>
-      <c r="H38" s="4">
+      <c r="G38" s="4">
         <f t="shared" si="4"/>
         <v>68.534591194968556</v>
       </c>
-      <c r="I38" s="4">
+      <c r="H38" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J38">
+      <c r="I38">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K38">
+      <c r="J38">
         <v>0</v>
       </c>
       <c r="S38" t="s">
@@ -11084,23 +13712,19 @@
       <c r="F39" s="4">
         <v>1.2594339622641508</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="3"/>
-        <v>0.89988330401233529</v>
-      </c>
-      <c r="H39" s="4">
+      <c r="G39" s="4">
         <f t="shared" si="4"/>
         <v>1.9339622641509431</v>
       </c>
-      <c r="I39" s="4">
+      <c r="H39" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J39">
+      <c r="I39">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K39">
+      <c r="J39">
         <v>0</v>
       </c>
       <c r="R39" t="s">
@@ -11125,11 +13749,11 @@
         <v>20.036695600000002</v>
       </c>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="20"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="20"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
       <c r="AF39" s="2"/>
       <c r="AQ39" s="2"/>
       <c r="AR39" s="2"/>
@@ -11156,23 +13780,19 @@
       <c r="F40" s="4">
         <v>64.150375939849624</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="3"/>
-        <v>27.912214419084052</v>
-      </c>
-      <c r="H40" s="4">
+      <c r="G40" s="4">
         <f t="shared" si="4"/>
         <v>63.150375939849624</v>
       </c>
-      <c r="I40" s="4">
+      <c r="H40" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J40">
+      <c r="I40">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K40">
+      <c r="J40">
         <v>0</v>
       </c>
       <c r="R40" t="s">
@@ -11197,11 +13817,11 @@
         <v>15.69030929</v>
       </c>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="20"/>
-      <c r="AC40" s="20"/>
-      <c r="AD40" s="20"/>
-      <c r="AE40" s="20"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
       <c r="AF40" s="2"/>
       <c r="AQ40" s="2"/>
       <c r="AR40" s="2"/>
@@ -11228,23 +13848,19 @@
       <c r="F41" s="4">
         <v>127.89179104477611</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="3"/>
-        <v>52.096314151300916</v>
-      </c>
-      <c r="H41" s="4">
+      <c r="G41" s="4">
         <f t="shared" si="4"/>
         <v>126.89179104477611</v>
       </c>
-      <c r="I41" s="4">
+      <c r="H41" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J41">
+      <c r="I41">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K41">
+      <c r="J41">
         <v>0</v>
       </c>
       <c r="S41" s="12" t="s">
@@ -11257,11 +13873,11 @@
       <c r="W41" s="2"/>
       <c r="X41" s="10"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="20"/>
-      <c r="AD41" s="20"/>
-      <c r="AE41" s="20"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="19"/>
       <c r="AF41" s="2"/>
       <c r="AQ41" s="2"/>
       <c r="AR41" s="2"/>
@@ -11288,23 +13904,19 @@
       <c r="F42" s="4">
         <v>0.99720412116942581</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="3"/>
-        <v>0.37040163769434281</v>
-      </c>
-      <c r="H42" s="4">
+      <c r="G42" s="4">
         <f t="shared" si="4"/>
         <v>0.76254843254667137</v>
       </c>
-      <c r="I42" s="4">
+      <c r="H42" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J42">
+      <c r="I42">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K42">
+      <c r="J42">
         <v>0</v>
       </c>
       <c r="R42" t="s">
@@ -11329,11 +13941,11 @@
         <v>281.11997969999999</v>
       </c>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
-      <c r="AD42" s="20"/>
-      <c r="AE42" s="20"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
       <c r="AF42" s="2"/>
       <c r="AQ42" s="2"/>
       <c r="AR42" s="2"/>
@@ -11360,31 +13972,27 @@
       <c r="F43" s="4">
         <v>1.3392415399764632</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="3"/>
-        <v>0.43503933875359985</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="G43" s="4">
         <f t="shared" si="4"/>
         <v>1.0195259024425392</v>
       </c>
-      <c r="I43" s="4">
+      <c r="H43" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J43">
+      <c r="I43">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K43">
+      <c r="J43">
         <v>0</v>
       </c>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
-      <c r="AC43" s="20"/>
-      <c r="AD43" s="20"/>
-      <c r="AE43" s="20"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
       <c r="AF43" s="2"/>
       <c r="AQ43" s="2"/>
       <c r="AR43" s="2"/>
@@ -11411,32 +14019,28 @@
       <c r="F44" s="4">
         <v>0.51548296373874003</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="3"/>
-        <v>0.37921092004185941</v>
-      </c>
-      <c r="H44" s="4">
+      <c r="G44" s="4">
         <f t="shared" si="4"/>
         <v>0.90653738210530654</v>
       </c>
-      <c r="I44" s="4">
+      <c r="H44" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J44">
+      <c r="I44">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K44">
+      <c r="J44">
         <v>0</v>
       </c>
       <c r="U44" s="7"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="20"/>
-      <c r="AB44" s="20"/>
-      <c r="AC44" s="20"/>
-      <c r="AD44" s="20"/>
-      <c r="AE44" s="20"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="19"/>
+      <c r="AE44" s="19"/>
       <c r="AF44" s="2"/>
       <c r="AQ44" s="2"/>
       <c r="AR44" s="2"/>
@@ -11463,32 +14067,28 @@
       <c r="F45" s="4">
         <v>51.13513513513513</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="3"/>
-        <v>21.876613880661058</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="G45" s="4">
         <f t="shared" si="4"/>
         <v>50.13513513513513</v>
       </c>
-      <c r="I45" s="4">
+      <c r="H45" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J45">
+      <c r="I45">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K45">
+      <c r="J45">
         <v>0</v>
       </c>
       <c r="U45" s="4"/>
       <c r="Z45" s="2"/>
-      <c r="AA45" s="20"/>
-      <c r="AB45" s="20"/>
-      <c r="AC45" s="20"/>
-      <c r="AD45" s="20"/>
-      <c r="AE45" s="20"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="19"/>
+      <c r="AD45" s="19"/>
+      <c r="AE45" s="19"/>
       <c r="AF45" s="2"/>
       <c r="AQ45" s="2"/>
       <c r="AR45" s="2"/>
@@ -11515,32 +14115,28 @@
       <c r="F46" s="4">
         <v>0.49431818181818182</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="3"/>
-        <v>0.20626056509379082</v>
-      </c>
-      <c r="H46" s="4">
+      <c r="G46" s="4">
         <f t="shared" si="4"/>
         <v>0.50568181818181812</v>
       </c>
-      <c r="I46" s="4">
+      <c r="H46" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J46">
+      <c r="I46">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K46">
+      <c r="J46">
         <v>0</v>
       </c>
       <c r="U46" s="4"/>
       <c r="Z46" s="2"/>
-      <c r="AA46" s="20"/>
-      <c r="AB46" s="20"/>
-      <c r="AC46" s="20"/>
-      <c r="AD46" s="20"/>
-      <c r="AE46" s="20"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="19"/>
+      <c r="AC46" s="19"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="19"/>
       <c r="AF46" s="2"/>
       <c r="AQ46" s="2"/>
       <c r="AR46" s="2"/>
@@ -11567,31 +14163,27 @@
       <c r="F47" s="4">
         <v>88.96022727272728</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="3"/>
-        <v>39.24218618759695</v>
-      </c>
-      <c r="H47" s="4">
+      <c r="G47" s="4">
         <f t="shared" si="4"/>
         <v>87.96022727272728</v>
       </c>
-      <c r="I47" s="4">
+      <c r="H47" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J47">
+      <c r="I47">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K47">
+      <c r="J47">
         <v>0</v>
       </c>
       <c r="Z47" s="2"/>
-      <c r="AA47" s="20"/>
-      <c r="AB47" s="20"/>
-      <c r="AC47" s="20"/>
-      <c r="AD47" s="20"/>
-      <c r="AE47" s="20"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
+      <c r="AE47" s="19"/>
       <c r="AF47" s="2"/>
       <c r="AQ47" s="2"/>
       <c r="AR47" s="2"/>
@@ -11618,31 +14210,27 @@
       <c r="F48" s="4">
         <v>0.70812182741116758</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="3"/>
-        <v>0.71808440392641848</v>
-      </c>
-      <c r="H48" s="4">
+      <c r="G48" s="4">
         <f t="shared" si="4"/>
         <v>1.8604060913705585</v>
       </c>
-      <c r="I48" s="4">
+      <c r="H48" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J48">
+      <c r="I48">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K48">
+      <c r="J48">
         <v>0</v>
       </c>
       <c r="Z48" s="2"/>
-      <c r="AA48" s="20"/>
-      <c r="AB48" s="20"/>
-      <c r="AC48" s="20"/>
-      <c r="AD48" s="20"/>
-      <c r="AE48" s="20"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
       <c r="AF48" s="2"/>
       <c r="AQ48" s="2"/>
       <c r="AR48" s="2"/>
@@ -11669,31 +14257,27 @@
       <c r="F49" s="4">
         <v>2.0223880597014925</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="3"/>
-        <v>1.814289460472071</v>
-      </c>
-      <c r="H49" s="4">
+      <c r="G49" s="4">
         <f t="shared" si="4"/>
         <v>4.5820895522388057</v>
       </c>
-      <c r="I49" s="4">
+      <c r="H49" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J49">
+      <c r="I49">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K49">
+      <c r="J49">
         <v>0</v>
       </c>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="20"/>
-      <c r="AB49" s="20"/>
-      <c r="AC49" s="20"/>
-      <c r="AD49" s="20"/>
-      <c r="AE49" s="20"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="19"/>
+      <c r="AD49" s="19"/>
+      <c r="AE49" s="19"/>
       <c r="AF49" s="2"/>
       <c r="AQ49" s="2"/>
       <c r="AR49" s="2"/>
@@ -11720,23 +14304,19 @@
       <c r="F50" s="4">
         <v>25.617256637168143</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="3"/>
-        <v>11.002995506421851</v>
-      </c>
-      <c r="H50" s="4">
+      <c r="G50" s="4">
         <f t="shared" si="4"/>
         <v>25.070796460176993</v>
       </c>
-      <c r="I50" s="4">
+      <c r="H50" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J50">
+      <c r="I50">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K50">
+      <c r="J50">
         <v>0</v>
       </c>
       <c r="AA50" s="4"/>
@@ -11769,23 +14349,19 @@
       <c r="F51" s="4">
         <v>128.13090909090909</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="3"/>
-        <v>56.919392097019227</v>
-      </c>
-      <c r="H51" s="4">
+      <c r="G51" s="4">
         <f t="shared" si="4"/>
         <v>127.69818181818181</v>
       </c>
-      <c r="I51" s="4">
+      <c r="H51" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J51">
+      <c r="I51">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K51">
+      <c r="J51">
         <v>0</v>
       </c>
       <c r="AA51" s="4"/>
@@ -11818,23 +14394,19 @@
       <c r="F52" s="4">
         <v>52.080152671755719</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="3"/>
-        <v>22.717941621348185</v>
-      </c>
-      <c r="H52" s="4">
+      <c r="G52" s="4">
         <f t="shared" si="4"/>
         <v>51.996183206106863</v>
       </c>
-      <c r="I52" s="4">
+      <c r="H52" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J52">
+      <c r="I52">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K52">
+      <c r="J52">
         <v>0</v>
       </c>
       <c r="AA52" s="4"/>
@@ -11867,23 +14439,19 @@
       <c r="F53" s="4">
         <v>247.32941176470587</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="3"/>
-        <v>109.48401038239221</v>
-      </c>
-      <c r="H53" s="4">
+      <c r="G53" s="4">
         <f t="shared" si="4"/>
         <v>246.32941176470587</v>
       </c>
-      <c r="I53" s="4">
+      <c r="H53" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J53">
+      <c r="I53">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K53">
+      <c r="J53">
         <v>0</v>
       </c>
       <c r="AA53" s="4"/>
@@ -11909,23 +14477,19 @@
       <c r="F54" s="4">
         <v>36.958333333333336</v>
       </c>
-      <c r="G54">
-        <f t="shared" si="3"/>
-        <v>15.949959953290607</v>
-      </c>
-      <c r="H54" s="4">
+      <c r="G54" s="4">
         <f t="shared" si="4"/>
         <v>36.152777777777779</v>
       </c>
-      <c r="I54" s="4">
+      <c r="H54" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J54">
+      <c r="I54">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K54">
+      <c r="J54">
         <v>0</v>
       </c>
       <c r="AA54" s="4"/>
@@ -11951,23 +14515,19 @@
       <c r="F55" s="4">
         <v>149.33082706766916</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="3"/>
-        <v>66.093014441999941</v>
-      </c>
-      <c r="H55" s="4">
+      <c r="G55" s="4">
         <f t="shared" si="4"/>
         <v>148.38721804511277</v>
       </c>
-      <c r="I55" s="4">
+      <c r="H55" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J55">
+      <c r="I55">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K55">
+      <c r="J55">
         <v>0</v>
       </c>
       <c r="AA55" s="4"/>
@@ -11993,23 +14553,19 @@
       <c r="F56" s="4">
         <v>1.3383838383838385</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="3"/>
-        <v>0.26371665637480157</v>
-      </c>
-      <c r="H56" s="4">
+      <c r="G56" s="4">
         <f t="shared" si="4"/>
         <v>0.67171717171717193</v>
       </c>
-      <c r="I56" s="4">
+      <c r="H56" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J56">
+      <c r="I56">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K56">
+      <c r="J56">
         <v>0</v>
       </c>
       <c r="AA56" s="4"/>
@@ -12035,23 +14591,19 @@
       <c r="F57" s="4">
         <v>1.6714975845410629</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="3"/>
-        <v>2.7095149405131127</v>
-      </c>
-      <c r="H57" s="4">
+      <c r="G57" s="4">
         <f t="shared" si="4"/>
         <v>6.2898550724637685</v>
       </c>
-      <c r="I57" s="4">
+      <c r="H57" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J57">
+      <c r="I57">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K57">
+      <c r="J57">
         <v>0</v>
       </c>
       <c r="AA57" s="4"/>
@@ -12077,23 +14629,19 @@
       <c r="F58" s="4">
         <v>1.0491111205396919</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="3"/>
-        <v>0.52584824589806967</v>
-      </c>
-      <c r="H58" s="4">
+      <c r="G58" s="4">
         <f t="shared" si="4"/>
         <v>1.0421952564809707</v>
       </c>
-      <c r="I58" s="4">
+      <c r="H58" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J58">
+      <c r="I58">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K58">
+      <c r="J58">
         <v>0</v>
       </c>
       <c r="AA58" s="4"/>
@@ -12119,23 +14667,19 @@
       <c r="F59" s="4">
         <v>158.51633986928104</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="3"/>
-        <v>69.687451577334414</v>
-      </c>
-      <c r="H59" s="4">
+      <c r="G59" s="4">
         <f t="shared" si="4"/>
         <v>157.51633986928104</v>
       </c>
-      <c r="I59" s="4">
+      <c r="H59" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J59">
+      <c r="I59">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K59">
+      <c r="J59">
         <v>0</v>
       </c>
       <c r="AA59" s="4"/>
@@ -12161,23 +14705,19 @@
       <c r="F60" s="4">
         <v>1.2758620689655171</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="3"/>
-        <v>0.94291884185785502</v>
-      </c>
-      <c r="H60" s="4">
+      <c r="G60" s="4">
         <f t="shared" si="4"/>
         <v>2.3060344827586206</v>
       </c>
-      <c r="I60" s="4">
+      <c r="H60" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J60">
+      <c r="I60">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K60">
+      <c r="J60">
         <v>0</v>
       </c>
       <c r="AA60" s="4"/>
@@ -12203,23 +14743,19 @@
       <c r="F61" s="4">
         <v>6.1674528301886795</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="3"/>
-        <v>2.3134120063770647</v>
-      </c>
-      <c r="H61" s="4">
+      <c r="G61" s="4">
         <f t="shared" si="4"/>
         <v>5.6462264150943398</v>
       </c>
-      <c r="I61" s="4">
+      <c r="H61" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J61">
+      <c r="I61">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K61">
+      <c r="J61">
         <v>0</v>
       </c>
       <c r="AA61" s="4"/>
@@ -12245,23 +14781,19 @@
       <c r="F62" s="4">
         <v>139.34134615384616</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="3"/>
-        <v>61.443227053131437</v>
-      </c>
-      <c r="H62" s="4">
+      <c r="G62" s="4">
         <f t="shared" si="4"/>
         <v>138.34134615384616</v>
       </c>
-      <c r="I62" s="4">
+      <c r="H62" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J62">
+      <c r="I62">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K62">
+      <c r="J62">
         <v>0</v>
       </c>
       <c r="AA62" s="4"/>
@@ -12287,23 +14819,19 @@
       <c r="F63" s="4">
         <v>0.5663972207404977</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="3"/>
-        <v>0.44994679661234216</v>
-      </c>
-      <c r="H63" s="4">
+      <c r="G63" s="4">
         <f t="shared" si="4"/>
         <v>0.99630708629108367</v>
       </c>
-      <c r="I63" s="4">
+      <c r="H63" s="4">
         <f t="shared" si="5"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J63">
+      <c r="I63">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K63">
+      <c r="J63">
         <v>0</v>
       </c>
       <c r="AA63" s="4"/>
@@ -12329,23 +14857,19 @@
       <c r="F64" s="4">
         <v>137.29032258064518</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="3"/>
-        <v>59.180611857904879</v>
+      <c r="G64" s="4">
+        <f t="shared" ref="G64:G82" si="7">MAX(B64:F64)-MIN(B64:F64)</f>
+        <v>136.74193548387098</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="4"/>
-        <v>136.74193548387098</v>
-      </c>
-      <c r="I64" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H64:H82" si="8">$G$83</f>
         <v>46.227793870138029</v>
       </c>
-      <c r="J64">
+      <c r="I64">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K64">
+      <c r="J64">
         <v>0</v>
       </c>
       <c r="AA64" s="4"/>
@@ -12371,23 +14895,19 @@
       <c r="F65" s="4">
         <v>236.97115384615387</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="3"/>
-        <v>105.13777775562185</v>
+      <c r="G65" s="4">
+        <f t="shared" si="7"/>
+        <v>235.97115384615387</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="4"/>
-        <v>235.97115384615387</v>
-      </c>
-      <c r="I65" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J65">
+      <c r="I65">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K65">
+      <c r="J65">
         <v>0</v>
       </c>
       <c r="AA65" s="4"/>
@@ -12413,23 +14933,19 @@
       <c r="F66" s="4">
         <v>19.439140811455847</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="3"/>
-        <v>8.2331932187443702</v>
+      <c r="G66" s="4">
+        <f t="shared" si="7"/>
+        <v>19.109785202863961</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="4"/>
-        <v>19.109785202863961</v>
-      </c>
-      <c r="I66" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J66">
+      <c r="I66">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K66">
+      <c r="J66">
         <v>0</v>
       </c>
       <c r="AA66" s="4"/>
@@ -12455,23 +14971,19 @@
       <c r="F67" s="4">
         <v>48.251989389920418</v>
       </c>
-      <c r="G67">
-        <f t="shared" si="3"/>
-        <v>20.98647048734259</v>
+      <c r="G67" s="4">
+        <f t="shared" si="7"/>
+        <v>47.291777188328908</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="4"/>
-        <v>47.291777188328908</v>
-      </c>
-      <c r="I67" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J67">
+      <c r="I67">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K67">
+      <c r="J67">
         <v>0</v>
       </c>
       <c r="AA67" s="4"/>
@@ -12497,23 +15009,19 @@
       <c r="F68" s="4">
         <v>28.122004357298476</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="3"/>
-        <v>12.083447374304907</v>
+      <c r="G68" s="4">
+        <f t="shared" si="7"/>
+        <v>27.394335511982572</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="4"/>
-        <v>27.394335511982572</v>
-      </c>
-      <c r="I68" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J68">
+      <c r="I68">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K68">
+      <c r="J68">
         <v>0</v>
       </c>
       <c r="AA68" s="4"/>
@@ -12539,23 +15047,19 @@
       <c r="F69" s="4">
         <v>2.0119047619047619</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="3"/>
-        <v>3.179439644221473</v>
+      <c r="G69" s="4">
+        <f t="shared" si="7"/>
+        <v>7.988095238095239</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="4"/>
-        <v>7.988095238095239</v>
-      </c>
-      <c r="I69" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J69">
+      <c r="I69">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K69">
+      <c r="J69">
         <v>0</v>
       </c>
       <c r="AA69" s="4"/>
@@ -12581,23 +15085,19 @@
       <c r="F70" s="4">
         <v>1.4832535885167464</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="3"/>
-        <v>0.30786787523680592</v>
+      <c r="G70" s="4">
+        <f t="shared" si="7"/>
+        <v>0.71770334928229651</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="4"/>
-        <v>0.71770334928229651</v>
-      </c>
-      <c r="I70" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J70">
+      <c r="I70">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K70">
+      <c r="J70">
         <v>0</v>
       </c>
       <c r="AA70" s="4"/>
@@ -12623,23 +15123,19 @@
       <c r="F71" s="4">
         <v>1.6115235709405604</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="3"/>
-        <v>0.70218467821076425</v>
+      <c r="G71" s="4">
+        <f t="shared" si="7"/>
+        <v>1.6053063083580053</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="4"/>
-        <v>1.6053063083580053</v>
-      </c>
-      <c r="I71" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J71">
+      <c r="I71">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K71">
+      <c r="J71">
         <v>0</v>
       </c>
       <c r="AA71" s="4"/>
@@ -12698,23 +15194,19 @@
       <c r="F72" s="4">
         <v>43.926582278481007</v>
       </c>
-      <c r="G72">
-        <f t="shared" si="3"/>
-        <v>19.168072399678266</v>
+      <c r="G72" s="4">
+        <f t="shared" si="7"/>
+        <v>43.483544303797466</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="4"/>
-        <v>43.483544303797466</v>
-      </c>
-      <c r="I72" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J72">
+      <c r="I72">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K72">
+      <c r="J72">
         <v>0</v>
       </c>
       <c r="AA72" s="4"/>
@@ -12738,19 +15230,19 @@
         <v>173.69023326315789</v>
       </c>
       <c r="BC72" s="4">
-        <f t="shared" ref="BC72:BC78" si="7">AW72/AX72</f>
+        <f t="shared" ref="BC72:BC78" si="9">AW72/AX72</f>
         <v>1.8606758359761109</v>
       </c>
       <c r="BD72" s="4">
-        <f t="shared" ref="BD72:BD78" si="8">AY72/AX72</f>
+        <f t="shared" ref="BD72:BD78" si="10">AY72/AX72</f>
         <v>2.7256089336787093</v>
       </c>
       <c r="BE72" s="4">
-        <f t="shared" ref="BE72:BE78" si="9">AZ72/AX72</f>
+        <f t="shared" ref="BE72:BE78" si="11">AZ72/AX72</f>
         <v>1.4038692318599493</v>
       </c>
       <c r="BF72" s="4">
-        <f t="shared" ref="BF72:BF78" si="10">BA72/AX72</f>
+        <f t="shared" ref="BF72:BF78" si="12">BA72/AX72</f>
         <v>2.7863864459300087</v>
       </c>
       <c r="BH72" s="1" t="s">
@@ -12777,23 +15269,19 @@
       <c r="F73" s="4">
         <v>1.0100334448160535</v>
       </c>
-      <c r="G73">
-        <f t="shared" si="3"/>
-        <v>0.76295755256899378</v>
+      <c r="G73" s="4">
+        <f t="shared" si="7"/>
+        <v>1.7826086956521738</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="4"/>
-        <v>1.7826086956521738</v>
-      </c>
-      <c r="I73" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J73">
+      <c r="I73">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K73">
+      <c r="J73">
         <v>0</v>
       </c>
       <c r="AA73" s="4"/>
@@ -12817,19 +15305,19 @@
         <v>111.10424089999999</v>
       </c>
       <c r="BC73" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.3025440499042231</v>
       </c>
       <c r="BD73" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.6484300334425945</v>
       </c>
       <c r="BE73" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.2963728691628582</v>
       </c>
       <c r="BF73" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.6407660209743096</v>
       </c>
       <c r="BH73" s="1" t="s">
@@ -12856,23 +15344,19 @@
       <c r="F74" s="4">
         <v>120.87878787878788</v>
       </c>
-      <c r="G74">
-        <f t="shared" si="3"/>
-        <v>53.223770635747371</v>
+      <c r="G74" s="4">
+        <f t="shared" si="7"/>
+        <v>119.98268398268398</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="4"/>
-        <v>119.98268398268398</v>
-      </c>
-      <c r="I74" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J74">
+      <c r="I74">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K74">
+      <c r="J74">
         <v>0</v>
       </c>
       <c r="AA74" s="4"/>
@@ -12896,19 +15380,19 @@
         <v>472.2688</v>
       </c>
       <c r="BC74" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.2626010744604779</v>
       </c>
       <c r="BD74" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.5825922734190212</v>
       </c>
       <c r="BE74" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.3482828801408167</v>
       </c>
       <c r="BF74" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>12.684500999284916</v>
       </c>
       <c r="BH74" s="1" t="s">
@@ -12935,23 +15419,19 @@
       <c r="F75" s="4">
         <v>21.631268436578171</v>
       </c>
-      <c r="G75">
-        <f t="shared" si="3"/>
-        <v>9.0453904705836639</v>
+      <c r="G75" s="4">
+        <f t="shared" si="7"/>
+        <v>20.852507374631269</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="4"/>
-        <v>20.852507374631269</v>
-      </c>
-      <c r="I75" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J75">
+      <c r="I75">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K75">
+      <c r="J75">
         <v>0</v>
       </c>
       <c r="AA75" s="4"/>
@@ -12975,19 +15455,19 @@
         <v>177.17657600000001</v>
       </c>
       <c r="BC75" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.4974357625647636</v>
       </c>
       <c r="BD75" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8054861531178497</v>
       </c>
       <c r="BE75" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.79909528443310629</v>
       </c>
       <c r="BF75" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.5505089025063779</v>
       </c>
       <c r="BH75" s="1" t="s">
@@ -13014,23 +15494,19 @@
       <c r="F76" s="4">
         <v>0.61868686868686873</v>
       </c>
-      <c r="G76">
-        <f t="shared" si="3"/>
-        <v>0.56240214149511358</v>
+      <c r="G76" s="4">
+        <f t="shared" si="7"/>
+        <v>1.4217171717171719</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="4"/>
-        <v>1.4217171717171719</v>
-      </c>
-      <c r="I76" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J76">
+      <c r="I76">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K76">
+      <c r="J76">
         <v>0</v>
       </c>
       <c r="AA76" s="4"/>
@@ -13054,19 +15530,19 @@
         <v>57.961130666666669</v>
       </c>
       <c r="BC76" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0379065654387025</v>
       </c>
       <c r="BD76" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.9419377102924679E-2</v>
       </c>
       <c r="BE76" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.40613406953670955</v>
       </c>
       <c r="BF76" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.8312483823656285</v>
       </c>
     </row>
@@ -13087,23 +15563,19 @@
       <c r="F77" s="4">
         <v>65.012875536480692</v>
       </c>
-      <c r="G77">
-        <f t="shared" si="3"/>
-        <v>28.585928587874161</v>
+      <c r="G77" s="4">
+        <f t="shared" si="7"/>
+        <v>64.012875536480692</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="4"/>
-        <v>64.012875536480692</v>
-      </c>
-      <c r="I77" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J77">
+      <c r="I77">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K77">
+      <c r="J77">
         <v>0</v>
       </c>
       <c r="AA77" s="4"/>
@@ -13127,19 +15599,19 @@
         <v>10.110975999999999</v>
       </c>
       <c r="BC77" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9564428312159707</v>
       </c>
       <c r="BD77" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4972776769509981</v>
       </c>
       <c r="BE77" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.9682395644283117</v>
       </c>
       <c r="BF77" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.9600725952813054</v>
       </c>
     </row>
@@ -13160,23 +15632,19 @@
       <c r="F78" s="4">
         <v>1.0833333333333333</v>
       </c>
-      <c r="G78">
-        <f t="shared" si="3"/>
-        <v>0.74912912401297338</v>
+      <c r="G78" s="4">
+        <f t="shared" si="7"/>
+        <v>1.7000000000000002</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="4"/>
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="I78" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J78">
+      <c r="I78">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K78">
+      <c r="J78">
         <v>0</v>
       </c>
       <c r="AA78" s="4"/>
@@ -13200,19 +15668,19 @@
         <v>1448.4561919999999</v>
       </c>
       <c r="BC78" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.1313246162592381</v>
       </c>
       <c r="BD78" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.6027799062378989</v>
       </c>
       <c r="BE78" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8850631534715871</v>
       </c>
       <c r="BF78" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8.7408112316780766</v>
       </c>
     </row>
@@ -13233,23 +15701,19 @@
       <c r="F79" s="4">
         <v>18.308163265306124</v>
       </c>
-      <c r="G79">
-        <f t="shared" si="3"/>
-        <v>7.6714943452615181</v>
+      <c r="G79" s="4">
+        <f t="shared" si="7"/>
+        <v>17.759183673469391</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="4"/>
-        <v>17.759183673469391</v>
-      </c>
-      <c r="I79" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J79">
+      <c r="I79">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K79">
+      <c r="J79">
         <v>0</v>
       </c>
       <c r="AA79" s="4"/>
@@ -13302,23 +15766,19 @@
       <c r="F80" s="4">
         <v>58.523415977961434</v>
       </c>
-      <c r="G80">
-        <f t="shared" si="3"/>
-        <v>24.888329805943414</v>
+      <c r="G80" s="4">
+        <f t="shared" si="7"/>
+        <v>57.939393939393945</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="4"/>
-        <v>57.939393939393945</v>
-      </c>
-      <c r="I80" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J80">
+      <c r="I80">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K80">
+      <c r="J80">
         <v>0</v>
       </c>
       <c r="AA80" s="4"/>
@@ -13344,23 +15804,19 @@
       <c r="F81" s="4">
         <v>65.234999999999999</v>
       </c>
-      <c r="G81">
-        <f t="shared" si="3"/>
-        <v>28.424328180275435</v>
+      <c r="G81" s="4">
+        <f t="shared" si="7"/>
+        <v>64.27</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" si="4"/>
-        <v>64.27</v>
-      </c>
-      <c r="I81" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J81">
+      <c r="I81">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K81">
+      <c r="J81">
         <v>0</v>
       </c>
       <c r="AA81" s="4"/>
@@ -13386,23 +15842,19 @@
       <c r="F82" s="4">
         <v>0.58812260536398464</v>
       </c>
-      <c r="G82">
-        <f t="shared" si="3"/>
-        <v>0.59889635141737951</v>
+      <c r="G82" s="4">
+        <f t="shared" si="7"/>
+        <v>1.3888888888888888</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="4"/>
-        <v>1.3888888888888888</v>
-      </c>
-      <c r="I82" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.227793870138029</v>
       </c>
-      <c r="J82">
+      <c r="I82">
         <f t="shared" si="6"/>
         <v>97.725556241471793</v>
       </c>
-      <c r="K82">
+      <c r="J82">
         <v>0</v>
       </c>
       <c r="AA82" s="4"/>
@@ -13418,8 +15870,8 @@
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="H83" s="4">
-        <f>AVERAGE(H32:H82)</f>
+      <c r="G83" s="4">
+        <f>AVERAGE(G32:G82)</f>
         <v>46.227793870138029</v>
       </c>
       <c r="AA83" s="4"/>
@@ -13490,16 +15942,16 @@
       <c r="F87" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="G87" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="H87" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="I87" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K87" s="1" t="s">
         <v>112</v>
       </c>
       <c r="AA87" s="4"/>
@@ -13514,38 +15966,34 @@
     </row>
     <row r="88" spans="1:62" ht="16">
       <c r="A88" s="4"/>
-      <c r="B88" s="18">
+      <c r="B88" s="17">
         <v>1</v>
       </c>
-      <c r="C88" s="18">
+      <c r="C88" s="17">
         <v>0.31001098766939322</v>
       </c>
-      <c r="D88" s="18">
+      <c r="D88" s="17">
         <v>0.8835429129532415</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E88" s="17">
         <v>0.46619460383347577</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F88" s="17">
         <v>3.555792943474545</v>
       </c>
-      <c r="G88" s="17">
-        <f t="shared" ref="G88:G93" si="11">_xlfn.STDEV.S(B88:F88)</f>
-        <v>1.3239301963116947</v>
+      <c r="G88" s="4">
+        <f t="shared" ref="G88:G93" si="13">MAX(B88:F88)-MIN(B88:F88)</f>
+        <v>3.2457819558051519</v>
       </c>
       <c r="H88" s="4">
-        <f>MAX(B88:F88)-MIN(B88:F88)</f>
-        <v>3.2457819558051519</v>
-      </c>
-      <c r="I88" s="4">
-        <f>$H$94</f>
+        <f t="shared" ref="H88:H93" si="14">$G$94</f>
         <v>82.188892829359375</v>
       </c>
+      <c r="I88">
+        <f>H88*2.114</f>
+        <v>173.74731944126572</v>
+      </c>
       <c r="J88">
-        <f>$H$94*2.114</f>
-        <v>173.74731944126572</v>
-      </c>
-      <c r="K88">
         <v>0</v>
       </c>
       <c r="AA88" s="4"/>
@@ -13572,7 +16020,7 @@
     </row>
     <row r="89" spans="1:62" ht="16">
       <c r="A89" s="4"/>
-      <c r="B89" s="18">
+      <c r="B89" s="17">
         <v>1</v>
       </c>
       <c r="C89" s="4">
@@ -13587,23 +16035,19 @@
       <c r="F89" s="4">
         <v>296.16724738675964</v>
       </c>
-      <c r="G89">
-        <f t="shared" si="11"/>
-        <v>131.67950360324093</v>
+      <c r="G89" s="4">
+        <f t="shared" si="13"/>
+        <v>295.16724738675964</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" ref="H89:H92" si="12">MAX(B89:F89)-MIN(B89:F89)</f>
-        <v>295.16724738675964</v>
-      </c>
-      <c r="I89" s="4">
-        <f t="shared" ref="I89:I93" si="13">$H$94</f>
+        <f t="shared" si="14"/>
         <v>82.188892829359375</v>
       </c>
+      <c r="I89">
+        <f t="shared" ref="I89:I93" si="15">H89*2.114</f>
+        <v>173.74731944126572</v>
+      </c>
       <c r="J89">
-        <f t="shared" ref="J89:J93" si="14">$H$94*2.114</f>
-        <v>173.74731944126572</v>
-      </c>
-      <c r="K89">
         <v>0</v>
       </c>
       <c r="AA89" s="4"/>
@@ -13674,38 +16118,34 @@
     </row>
     <row r="90" spans="1:62">
       <c r="A90" s="4"/>
-      <c r="B90" s="18">
+      <c r="B90" s="17">
         <v>1</v>
       </c>
-      <c r="C90" s="18">
+      <c r="C90" s="17">
         <v>0.28656408962878882</v>
       </c>
-      <c r="D90" s="18">
+      <c r="D90" s="17">
         <v>0.70080295959978145</v>
       </c>
-      <c r="E90" s="18">
+      <c r="E90" s="17">
         <v>0.35021230083659138</v>
       </c>
-      <c r="F90" s="18">
+      <c r="F90" s="17">
         <v>2.9406608651784589</v>
       </c>
-      <c r="G90" s="17">
-        <f t="shared" si="11"/>
-        <v>1.0921784184984347</v>
+      <c r="G90" s="4">
+        <f t="shared" si="13"/>
+        <v>2.6540967755496703</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" si="12"/>
-        <v>2.6540967755496703</v>
-      </c>
-      <c r="I90" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>82.188892829359375</v>
       </c>
+      <c r="I90">
+        <f t="shared" si="15"/>
+        <v>173.74731944126572</v>
+      </c>
       <c r="J90">
-        <f t="shared" si="14"/>
-        <v>173.74731944126572</v>
-      </c>
-      <c r="K90">
         <v>0</v>
       </c>
       <c r="AA90" s="4"/>
@@ -13796,7 +16236,7 @@
     </row>
     <row r="91" spans="1:62">
       <c r="A91" s="4"/>
-      <c r="B91" s="18">
+      <c r="B91" s="17">
         <v>1</v>
       </c>
       <c r="C91" s="4">
@@ -13811,23 +16251,19 @@
       <c r="F91" s="4">
         <v>1.4414893617021276</v>
       </c>
-      <c r="G91">
-        <f t="shared" si="11"/>
-        <v>1.2411376646369066</v>
+      <c r="G91" s="4">
+        <f t="shared" si="13"/>
+        <v>2.978723404255319</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" si="12"/>
-        <v>2.978723404255319</v>
-      </c>
-      <c r="I91" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>82.188892829359375</v>
       </c>
+      <c r="I91">
+        <f t="shared" si="15"/>
+        <v>173.74731944126572</v>
+      </c>
       <c r="J91">
-        <f t="shared" si="14"/>
-        <v>173.74731944126572</v>
-      </c>
-      <c r="K91">
         <v>0</v>
       </c>
       <c r="AA91" s="4"/>
@@ -13840,7 +16276,7 @@
     </row>
     <row r="92" spans="1:62">
       <c r="A92" s="4"/>
-      <c r="B92" s="18">
+      <c r="B92" s="17">
         <v>1</v>
       </c>
       <c r="C92" s="4">
@@ -13855,23 +16291,19 @@
       <c r="F92" s="4">
         <v>42.482905982905983</v>
       </c>
-      <c r="G92" s="7">
-        <f t="shared" si="11"/>
-        <v>18.455723205674936</v>
+      <c r="G92" s="4">
+        <f t="shared" si="13"/>
+        <v>41.628205128205131</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" si="12"/>
-        <v>41.628205128205131</v>
-      </c>
-      <c r="I92" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>82.188892829359375</v>
       </c>
+      <c r="I92">
+        <f t="shared" si="15"/>
+        <v>173.74731944126572</v>
+      </c>
       <c r="J92">
-        <f t="shared" si="14"/>
-        <v>173.74731944126572</v>
-      </c>
-      <c r="K92">
         <v>0</v>
       </c>
       <c r="AA92" s="4"/>
@@ -13884,7 +16316,7 @@
     </row>
     <row r="93" spans="1:62" ht="16">
       <c r="A93" s="4"/>
-      <c r="B93" s="18">
+      <c r="B93" s="17">
         <v>1</v>
       </c>
       <c r="C93" s="4">
@@ -13899,23 +16331,19 @@
       <c r="F93" s="4">
         <v>148.45930232558138</v>
       </c>
-      <c r="G93" s="7">
-        <f t="shared" si="11"/>
-        <v>65.481218665903555</v>
+      <c r="G93" s="4">
+        <f t="shared" si="13"/>
+        <v>147.45930232558138</v>
       </c>
       <c r="H93" s="4">
-        <f>MAX(B93:F93)-MIN(B93:F93)</f>
-        <v>147.45930232558138</v>
-      </c>
-      <c r="I93" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>82.188892829359375</v>
       </c>
+      <c r="I93">
+        <f t="shared" si="15"/>
+        <v>173.74731944126572</v>
+      </c>
       <c r="J93">
-        <f t="shared" si="14"/>
-        <v>173.74731944126572</v>
-      </c>
-      <c r="K93">
         <v>0</v>
       </c>
       <c r="AA93" s="1"/>
@@ -13933,8 +16361,8 @@
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="H94" s="4">
-        <f>AVERAGE(H88:H93)</f>
+      <c r="G94" s="4">
+        <f>AVERAGE(G88:G93)</f>
         <v>82.188892829359375</v>
       </c>
       <c r="AA94" s="1"/>
@@ -13952,11 +16380,11 @@
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="AA95" s="19"/>
-      <c r="AB95" s="19"/>
-      <c r="AC95" s="19"/>
-      <c r="AD95" s="19"/>
-      <c r="AE95" s="19"/>
+      <c r="AA95" s="18"/>
+      <c r="AB95" s="18"/>
+      <c r="AC95" s="18"/>
+      <c r="AD95" s="18"/>
+      <c r="AE95" s="18"/>
       <c r="AQ95" s="2"/>
       <c r="AR95" s="2"/>
     </row>
@@ -13984,11 +16412,11 @@
       <c r="D97" s="1"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="AA97" s="19"/>
-      <c r="AB97" s="19"/>
-      <c r="AC97" s="19"/>
-      <c r="AD97" s="19"/>
-      <c r="AE97" s="19"/>
+      <c r="AA97" s="18"/>
+      <c r="AB97" s="18"/>
+      <c r="AC97" s="18"/>
+      <c r="AD97" s="18"/>
+      <c r="AE97" s="18"/>
       <c r="AQ97" s="2"/>
       <c r="AR97" s="2"/>
     </row>
@@ -14009,16 +16437,16 @@
       <c r="F98" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H98" s="4" t="s">
+      <c r="G98" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="H98" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="I98" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K98" s="1" t="s">
         <v>112</v>
       </c>
       <c r="AA98" s="4"/>
@@ -14048,23 +16476,19 @@
       <c r="F99" s="4">
         <v>0.87195121951219512</v>
       </c>
-      <c r="G99">
-        <f t="shared" ref="G99:G102" si="15">_xlfn.STDEV.S(B99:F99)</f>
-        <v>1.0949273959398116</v>
-      </c>
-      <c r="H99" s="4">
+      <c r="G99" s="4">
         <f>MAX(B99:F99)-MIN(B99:F99)</f>
         <v>2.7317073170731709</v>
       </c>
-      <c r="I99" s="4">
-        <f>$H$103</f>
+      <c r="H99" s="4">
+        <f>$G$103</f>
         <v>5.8949424839198121</v>
       </c>
+      <c r="I99">
+        <f>H99*2.114</f>
+        <v>12.461908411006482</v>
+      </c>
       <c r="J99">
-        <f>$H$103*2.114</f>
-        <v>12.461908411006482</v>
-      </c>
-      <c r="K99">
         <v>0</v>
       </c>
       <c r="AA99" s="4"/>
@@ -14106,23 +16530,19 @@
       <c r="F100" s="4">
         <v>1.7930590322502247</v>
       </c>
-      <c r="G100">
-        <f t="shared" si="15"/>
-        <v>0.63410492620819281</v>
+      <c r="G100" s="4">
+        <f>MAX(B100:F100)-MIN(B100:F100)</f>
+        <v>1.4891243590055168</v>
       </c>
       <c r="H100" s="4">
-        <f t="shared" ref="H100:H102" si="16">MAX(B100:F100)-MIN(B100:F100)</f>
-        <v>1.4891243590055168</v>
-      </c>
-      <c r="I100" s="4">
-        <f t="shared" ref="I100:I102" si="17">$H$103</f>
+        <f>$G$103</f>
         <v>5.8949424839198121</v>
       </c>
+      <c r="I100">
+        <f t="shared" ref="I100:I102" si="16">H100*2.114</f>
+        <v>12.461908411006482</v>
+      </c>
       <c r="J100">
-        <f t="shared" ref="J100:J102" si="18">$H$103*2.114</f>
-        <v>12.461908411006482</v>
-      </c>
-      <c r="K100">
         <v>0</v>
       </c>
       <c r="AA100" s="4"/>
@@ -14208,23 +16628,19 @@
       <c r="F101" s="4">
         <v>0.5614754832583887</v>
       </c>
-      <c r="G101">
-        <f t="shared" si="15"/>
-        <v>0.37230129545837692</v>
+      <c r="G101" s="4">
+        <f>MAX(B101:F101)-MIN(B101:F101)</f>
+        <v>0.89916814465803163</v>
       </c>
       <c r="H101" s="4">
+        <f>$G$103</f>
+        <v>5.8949424839198121</v>
+      </c>
+      <c r="I101">
         <f t="shared" si="16"/>
-        <v>0.89916814465803163</v>
-      </c>
-      <c r="I101" s="4">
-        <f t="shared" si="17"/>
-        <v>5.8949424839198121</v>
+        <v>12.461908411006482</v>
       </c>
       <c r="J101">
-        <f t="shared" si="18"/>
-        <v>12.461908411006482</v>
-      </c>
-      <c r="K101">
         <v>0</v>
       </c>
       <c r="AA101" s="4"/>
@@ -14330,23 +16746,19 @@
       <c r="F102" s="4">
         <v>19.459770114942529</v>
       </c>
-      <c r="G102">
-        <f t="shared" si="15"/>
-        <v>7.8580785732764529</v>
+      <c r="G102" s="4">
+        <f>MAX(B102:F102)-MIN(B102:F102)</f>
+        <v>18.459770114942529</v>
       </c>
       <c r="H102" s="4">
+        <f>$G$103</f>
+        <v>5.8949424839198121</v>
+      </c>
+      <c r="I102">
         <f t="shared" si="16"/>
-        <v>18.459770114942529</v>
-      </c>
-      <c r="I102" s="4">
-        <f t="shared" si="17"/>
-        <v>5.8949424839198121</v>
+        <v>12.461908411006482</v>
       </c>
       <c r="J102">
-        <f t="shared" si="18"/>
-        <v>12.461908411006482</v>
-      </c>
-      <c r="K102">
         <v>0</v>
       </c>
       <c r="AA102" s="4"/>
@@ -14364,8 +16776,8 @@
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="H103" s="4">
-        <f>AVERAGE(H99:H102)</f>
+      <c r="G103" s="4">
+        <f>AVERAGE(G99:G102)</f>
         <v>5.8949424839198121</v>
       </c>
       <c r="AA103" s="4"/>
@@ -14425,16 +16837,16 @@
       <c r="F106" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H106" s="4" t="s">
+      <c r="G106" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="H106" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="I106" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K106" s="1" t="s">
         <v>112</v>
       </c>
       <c r="AA106" s="4"/>
@@ -14450,37 +16862,33 @@
     <row r="107" spans="1:62" ht="16">
       <c r="A107" s="4"/>
       <c r="B107" s="4">
-        <v>1.232896</v>
+        <v>1</v>
       </c>
       <c r="C107" s="4">
-        <v>1.015808</v>
+        <v>0.82392026578073096</v>
       </c>
       <c r="D107" s="4">
-        <v>0.45875199999999999</v>
+        <v>0.37209302325581395</v>
       </c>
       <c r="E107" s="4">
-        <v>0.87654399999999999</v>
+        <v>0.71096345514950166</v>
       </c>
       <c r="F107" s="4">
-        <v>0.65945600000000004</v>
-      </c>
-      <c r="G107">
-        <f t="shared" ref="G107:G109" si="19">_xlfn.STDEV.S(B107:F107)</f>
-        <v>0.30173650436630994</v>
+        <v>0.53488372093023262</v>
+      </c>
+      <c r="G107" s="4">
+        <f>MAX(B107:F107)-MIN(B107:F107)</f>
+        <v>0.62790697674418605</v>
       </c>
       <c r="H107" s="4">
-        <f>MAX(B107:F107)-MIN(B107:F107)</f>
-        <v>0.77414399999999994</v>
-      </c>
-      <c r="I107" s="4">
-        <f>$H$110</f>
-        <v>57.221120000000006</v>
+        <f>$G$110</f>
+        <v>7.1816098321430459</v>
+      </c>
+      <c r="I107">
+        <f>H107*2.114</f>
+        <v>15.181923185150398</v>
       </c>
       <c r="J107">
-        <f>$H$110*2.114</f>
-        <v>120.96544768000001</v>
-      </c>
-      <c r="K107">
         <v>0</v>
       </c>
       <c r="AA107" s="4"/>
@@ -14508,37 +16916,33 @@
     <row r="108" spans="1:62" ht="16">
       <c r="A108" s="4"/>
       <c r="B108" s="4">
-        <v>128.29491200000001</v>
+        <v>1</v>
       </c>
       <c r="C108" s="4">
-        <v>55.291904000000002</v>
+        <v>0.43097503352276356</v>
       </c>
       <c r="D108" s="4">
-        <v>0.59801599999999999</v>
+        <v>4.6612604559095839E-3</v>
       </c>
       <c r="E108" s="4">
-        <v>34.496512000000003</v>
+        <v>0.26888449013472959</v>
       </c>
       <c r="F108" s="4">
-        <v>134.20134400000001</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="19"/>
-        <v>58.76203810650339</v>
+        <v>1.0460379286124768</v>
+      </c>
+      <c r="G108" s="4">
+        <f>MAX(B108:F108)-MIN(B108:F108)</f>
+        <v>1.0413766681565673</v>
       </c>
       <c r="H108" s="4">
-        <f t="shared" ref="H108:H109" si="20">MAX(B108:F108)-MIN(B108:F108)</f>
-        <v>133.603328</v>
-      </c>
-      <c r="I108" s="4">
-        <f t="shared" ref="I108:I109" si="21">$H$110</f>
-        <v>57.221120000000006</v>
+        <f>$G$110</f>
+        <v>7.1816098321430459</v>
+      </c>
+      <c r="I108">
+        <f t="shared" ref="I108:I109" si="17">H108*2.114</f>
+        <v>15.181923185150398</v>
       </c>
       <c r="J108">
-        <f t="shared" ref="J108:J109" si="22">$H$110*2.114</f>
-        <v>120.96544768000001</v>
-      </c>
-      <c r="K108">
         <v>0</v>
       </c>
       <c r="AA108" s="4"/>
@@ -14610,37 +17014,33 @@
     <row r="109" spans="1:62">
       <c r="A109" s="4"/>
       <c r="B109" s="4">
-        <v>1.8759680000000001</v>
+        <v>1</v>
       </c>
       <c r="C109" s="4">
-        <v>38.645760000000003</v>
+        <v>20.600436681222707</v>
       </c>
       <c r="D109" s="4">
-        <v>1.736704</v>
+        <v>0.92576419213973793</v>
       </c>
       <c r="E109" s="4">
-        <v>3.1907839999999998</v>
+        <v>1.7008733624454146</v>
       </c>
       <c r="F109" s="4">
-        <v>39.022592000000003</v>
-      </c>
-      <c r="G109">
-        <f t="shared" si="19"/>
-        <v>20.036695600033376</v>
+        <v>20.801310043668124</v>
+      </c>
+      <c r="G109" s="4">
+        <f>MAX(B109:F109)-MIN(B109:F109)</f>
+        <v>19.875545851528386</v>
       </c>
       <c r="H109" s="4">
-        <f t="shared" si="20"/>
-        <v>37.285888</v>
-      </c>
-      <c r="I109" s="4">
-        <f t="shared" si="21"/>
-        <v>57.221120000000006</v>
+        <f>$G$110</f>
+        <v>7.1816098321430459</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="17"/>
+        <v>15.181923185150398</v>
       </c>
       <c r="J109">
-        <f t="shared" si="22"/>
-        <v>120.96544768000001</v>
-      </c>
-      <c r="K109">
         <v>0</v>
       </c>
       <c r="AA109" s="4"/>
@@ -14649,83 +17049,83 @@
       <c r="AD109" s="4"/>
       <c r="AE109" s="4"/>
       <c r="AQ109" s="2">
-        <f>AVERAGEA(B107:B112)</f>
-        <v>32.850944000000005</v>
+        <f>AVERAGEA(B107:B148)</f>
+        <v>36.24290504347826</v>
       </c>
       <c r="AR109" s="2">
-        <f>_xlfn.STDEV.S(B107:B112)</f>
-        <v>73.174356680530039</v>
+        <f>_xlfn.STDEV.S(B107:B148)</f>
+        <v>189.16664220745321</v>
       </c>
       <c r="AS109">
-        <f>MIN(B107:B112)</f>
-        <v>1.232896</v>
+        <f>MIN(B107:B148)</f>
+        <v>0.831488</v>
       </c>
       <c r="AT109">
-        <f>MAX(B107:B112)</f>
-        <v>128.29491200000001</v>
+        <f>MAX(B107:B148)</f>
+        <v>708.57932800000003</v>
       </c>
       <c r="AU109">
-        <f>AVERAGEA(C107:C112)</f>
-        <v>31.651157333333334</v>
+        <f>AVERAGEA(C107:C148)</f>
+        <v>9.1296953633534059</v>
       </c>
       <c r="AV109">
-        <f>_xlfn.STDEV.S(C107:C112)</f>
-        <v>27.80588065677312</v>
+        <f>_xlfn.STDEV.S(C107:C148)</f>
+        <v>28.584022362083939</v>
       </c>
       <c r="AW109">
         <v>0.54500000000000004</v>
       </c>
       <c r="AX109">
-        <f>MAX(C107:C112)</f>
-        <v>55.291904000000002</v>
+        <f>MAX(C107:C148)</f>
+        <v>106.057728</v>
       </c>
       <c r="AY109">
-        <f>AVERAGEA(D107:D112)</f>
-        <v>0.93115733333333328</v>
+        <f>AVERAGEA(D107:D148)</f>
+        <v>19.821923677143161</v>
       </c>
       <c r="AZ109">
-        <f>_xlfn.STDEV.S(D107:D112)</f>
-        <v>0.70109035762684202</v>
+        <f>_xlfn.STDEV.S(D107:D148)</f>
+        <v>79.314601488161088</v>
       </c>
       <c r="BA109">
-        <f>MIN(D107:D112)</f>
-        <v>0.45875199999999999</v>
+        <f>MIN(D107:D148)</f>
+        <v>4.6612604559095839E-3</v>
       </c>
       <c r="BB109">
-        <f>MAX(D107:D112)</f>
-        <v>1.736704</v>
+        <f>MAX(D107:D148)</f>
+        <v>297.99219199999999</v>
       </c>
       <c r="BC109" s="4">
-        <f>AVERAGEA(E107:E112)</f>
-        <v>12.854613333333335</v>
+        <f>AVERAGEA(E107:E148)</f>
+        <v>10.330413742782284</v>
       </c>
       <c r="BD109">
-        <f>_xlfn.STDEV.S(E107:E112)</f>
-        <v>18.778119184787954</v>
+        <f>_xlfn.STDEV.S(E107:E148)</f>
+        <v>36.430763597503955</v>
       </c>
       <c r="BE109">
-        <f>MIN(E107:E112)</f>
-        <v>0.87654399999999999</v>
+        <f>MIN(E107:E148)</f>
+        <v>0.23481781376518221</v>
       </c>
       <c r="BF109">
-        <f>MAX(E107:E112)</f>
-        <v>34.496512000000003</v>
+        <f>MAX(E107:E148)</f>
+        <v>137.44537600000001</v>
       </c>
       <c r="BG109">
-        <f>AVERAGEA(F107:F112)</f>
-        <v>57.961130666666669</v>
+        <f>AVERAGEA(F107:F148)</f>
+        <v>79.397909363487855</v>
       </c>
       <c r="BH109">
-        <f>_xlfn.STDEV.S(F107:F112)</f>
-        <v>68.755800829986399</v>
+        <f>_xlfn.STDEV.S(F107:F148)</f>
+        <v>201.31598103068578</v>
       </c>
       <c r="BI109">
-        <f>MIN(F107:F112)</f>
-        <v>0.65945600000000004</v>
+        <f>MIN(F107:F148)</f>
+        <v>0.27732793522267207</v>
       </c>
       <c r="BJ109">
-        <f>MAX(F107:F112)</f>
-        <v>134.20134400000001</v>
+        <f>MAX(F107:F148)</f>
+        <v>607.43679999999995</v>
       </c>
     </row>
     <row r="110" spans="1:62">
@@ -14735,9 +17135,9 @@
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="H110">
-        <f>AVERAGE(H107:H109)</f>
-        <v>57.221120000000006</v>
+      <c r="G110">
+        <f>AVERAGE(G107:G109)</f>
+        <v>7.1816098321430459</v>
       </c>
       <c r="AA110" s="4"/>
       <c r="AB110" s="4"/>
@@ -14764,13 +17164,6 @@
     </row>
     <row r="112" spans="1:62" ht="16">
       <c r="A112" s="4"/>
-      <c r="B112" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
       <c r="AC112" s="1"/>
@@ -14783,21 +17176,6 @@
     </row>
     <row r="113" spans="1:62" ht="16">
       <c r="A113" s="4"/>
-      <c r="B113" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
       <c r="AC113" s="1"/>
@@ -14822,21 +17200,6 @@
     </row>
     <row r="114" spans="1:62" ht="16">
       <c r="A114" s="4"/>
-      <c r="B114" s="4">
-        <v>303.72249599999998</v>
-      </c>
-      <c r="C114" s="4">
-        <v>50.974719999999998</v>
-      </c>
-      <c r="D114" s="4">
-        <v>36.433920000000001</v>
-      </c>
-      <c r="E114" s="4">
-        <v>28.102656</v>
-      </c>
-      <c r="F114" s="4">
-        <v>46.981119999999997</v>
-      </c>
       <c r="AA114" s="4"/>
       <c r="AB114" s="4"/>
       <c r="AC114" s="4"/>
@@ -14917,7 +17280,7 @@
       <c r="AE115" s="4"/>
       <c r="AQ115" s="2">
         <f>AVERAGEA(B113:B118)</f>
-        <v>75.930623999999995</v>
+        <v>0</v>
       </c>
       <c r="AR115" s="3" t="e">
         <f>_xlfn.STDEV.S(B113:B118)</f>
@@ -14925,15 +17288,15 @@
       </c>
       <c r="AS115">
         <f>MIN(B113:B118)</f>
-        <v>303.72249599999998</v>
+        <v>0</v>
       </c>
       <c r="AT115">
         <f>MAX(B113:B118)</f>
-        <v>303.72249599999998</v>
+        <v>0</v>
       </c>
       <c r="AU115">
         <f>AVERAGEA(C113:C118)</f>
-        <v>16.991573333333331</v>
+        <v>0</v>
       </c>
       <c r="AV115" t="e">
         <f>_xlfn.STDEV.S(C113:C118)</f>
@@ -14941,15 +17304,15 @@
       </c>
       <c r="AW115">
         <f>MIN(C113:C118)</f>
-        <v>50.974719999999998</v>
+        <v>0</v>
       </c>
       <c r="AX115">
         <f>MAX(C113:C118)</f>
-        <v>50.974719999999998</v>
+        <v>0</v>
       </c>
       <c r="AY115">
         <f>AVERAGEA(D113:D118)</f>
-        <v>12.144640000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ115" t="e">
         <f>_xlfn.STDEV.S(D113:D118)</f>
@@ -14957,15 +17320,15 @@
       </c>
       <c r="BA115">
         <f>MIN(D113:D118)</f>
-        <v>36.433920000000001</v>
+        <v>0</v>
       </c>
       <c r="BB115">
         <f>MAX(D113:D118)</f>
-        <v>36.433920000000001</v>
+        <v>0</v>
       </c>
       <c r="BC115">
         <f>AVERAGEA(E113:E118)</f>
-        <v>9.3675519999999999</v>
+        <v>0</v>
       </c>
       <c r="BD115" t="e">
         <f>_xlfn.STDEV.S(E113:E118)</f>
@@ -14973,15 +17336,15 @@
       </c>
       <c r="BE115">
         <f>MIN(E113:E118)</f>
-        <v>28.102656</v>
+        <v>0</v>
       </c>
       <c r="BF115">
         <f>MAX(E113:E118)</f>
-        <v>28.102656</v>
+        <v>0</v>
       </c>
       <c r="BG115">
         <f>AVERAGEA(F113:F118)</f>
-        <v>15.660373333333332</v>
+        <v>0</v>
       </c>
       <c r="BH115" t="e">
         <f>_xlfn.STDEV.S(F113:F118)</f>
@@ -14989,11 +17352,11 @@
       </c>
       <c r="BI115">
         <f>MIN(F113:F118)</f>
-        <v>46.981119999999997</v>
+        <v>0</v>
       </c>
       <c r="BJ115">
         <f>MAX(F113:F118)</f>
-        <v>46.981119999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:62">
@@ -15045,16 +17408,16 @@
       <c r="F118" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H118" s="4" t="s">
+      <c r="G118" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="H118" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="I118" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K118" s="1" t="s">
         <v>112</v>
       </c>
       <c r="AA118" s="4"/>
@@ -15070,37 +17433,33 @@
     <row r="119" spans="1:62" ht="16">
       <c r="A119" s="4"/>
       <c r="B119" s="4">
-        <v>4.0468479999999998</v>
+        <v>1</v>
       </c>
       <c r="C119" s="4">
-        <v>1.5032319999999999</v>
+        <v>0.37145748987854249</v>
       </c>
       <c r="D119" s="4">
-        <v>1.35168</v>
+        <v>0.33400809716599195</v>
       </c>
       <c r="E119" s="4">
-        <v>0.95027200000000001</v>
+        <v>0.23481781376518221</v>
       </c>
       <c r="F119" s="4">
-        <v>1.122304</v>
-      </c>
-      <c r="G119">
-        <f t="shared" ref="G119:G122" si="23">_xlfn.STDEV.S(B119:F119)</f>
-        <v>1.2765741084587297</v>
+        <v>0.27732793522267207</v>
+      </c>
+      <c r="G119" s="4">
+        <f>MAX(B119:F119)-MIN(B119:F119)</f>
+        <v>0.76518218623481782</v>
       </c>
       <c r="H119" s="4">
-        <f>MAX(B119:F119)-MIN(B119:F119)</f>
-        <v>3.0965759999999998</v>
-      </c>
-      <c r="I119" s="4">
-        <f>$H$123</f>
-        <v>12.673023999999998</v>
+        <f>$G$123</f>
+        <v>7.352344060001057</v>
+      </c>
+      <c r="I119">
+        <f>H119*2.114</f>
+        <v>15.542855342842234</v>
       </c>
       <c r="J119">
-        <f>$H$123*2.114</f>
-        <v>26.790772735999994</v>
-      </c>
-      <c r="K119">
         <v>0</v>
       </c>
       <c r="AA119" s="1"/>
@@ -15128,37 +17487,33 @@
     <row r="120" spans="1:62" ht="16">
       <c r="A120" s="4"/>
       <c r="B120" s="4">
-        <v>1.1550720000000001</v>
+        <v>1</v>
       </c>
       <c r="C120" s="4">
-        <v>0.712704</v>
+        <v>0.61702127659574468</v>
       </c>
       <c r="D120" s="4">
-        <v>1.634304</v>
+        <v>1.4148936170212765</v>
       </c>
       <c r="E120" s="4">
-        <v>11.20256</v>
+        <v>9.6985815602836869</v>
       </c>
       <c r="F120" s="4">
-        <v>1.1100159999999999</v>
-      </c>
-      <c r="G120">
-        <f t="shared" si="23"/>
-        <v>4.5061598139492567</v>
+        <v>0.96099290780141822</v>
+      </c>
+      <c r="G120" s="4">
+        <f>MAX(B120:F120)-MIN(B120:F120)</f>
+        <v>9.0815602836879421</v>
       </c>
       <c r="H120" s="4">
-        <f t="shared" ref="H120:H122" si="24">MAX(B120:F120)-MIN(B120:F120)</f>
-        <v>10.489856</v>
-      </c>
-      <c r="I120" s="4">
-        <f t="shared" ref="I120:I122" si="25">$H$123</f>
-        <v>12.673023999999998</v>
+        <f>$G$123</f>
+        <v>7.352344060001057</v>
+      </c>
+      <c r="I120">
+        <f t="shared" ref="I120:I122" si="18">H120*2.114</f>
+        <v>15.542855342842234</v>
       </c>
       <c r="J120">
-        <f t="shared" ref="J120:J122" si="26">$H$123*2.114</f>
-        <v>26.790772735999994</v>
-      </c>
-      <c r="K120">
         <v>0</v>
       </c>
       <c r="AA120" s="1"/>
@@ -15230,37 +17585,33 @@
     <row r="121" spans="1:62">
       <c r="A121" s="4"/>
       <c r="B121" s="4">
-        <v>1.7244159999999999</v>
+        <v>1</v>
       </c>
       <c r="C121" s="4">
-        <v>1.5933440000000001</v>
+        <v>0.92399049881235162</v>
       </c>
       <c r="D121" s="4">
-        <v>2.02752</v>
+        <v>1.175771971496437</v>
       </c>
       <c r="E121" s="4">
-        <v>0.55296000000000001</v>
+        <v>0.32066508313539194</v>
       </c>
       <c r="F121" s="4">
-        <v>1.8882559999999999</v>
-      </c>
-      <c r="G121">
-        <f t="shared" si="23"/>
-        <v>0.58492830443670618</v>
+        <v>1.0950118764845607</v>
+      </c>
+      <c r="G121" s="4">
+        <f>MAX(B121:F121)-MIN(B121:F121)</f>
+        <v>0.85510688836104509</v>
       </c>
       <c r="H121" s="4">
-        <f t="shared" si="24"/>
-        <v>1.4745599999999999</v>
-      </c>
-      <c r="I121" s="4">
-        <f t="shared" si="25"/>
-        <v>12.673023999999998</v>
+        <f>$G$123</f>
+        <v>7.352344060001057</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="18"/>
+        <v>15.542855342842234</v>
       </c>
       <c r="J121">
-        <f t="shared" si="26"/>
-        <v>26.790772735999994</v>
-      </c>
-      <c r="K121">
         <v>0</v>
       </c>
       <c r="AA121" s="4"/>
@@ -15270,119 +17621,115 @@
       <c r="AE121" s="4"/>
       <c r="AQ121" s="2">
         <f>AVERAGEA(B119:B124)</f>
-        <v>2.2077439999999999</v>
+        <v>1</v>
       </c>
       <c r="AR121" s="2">
         <f>_xlfn.STDEV.S(B119:B122)</f>
-        <v>1.2670043215922089</v>
+        <v>0</v>
       </c>
       <c r="AS121">
         <f>MIN(B119:B124)</f>
-        <v>1.1550720000000001</v>
+        <v>1</v>
       </c>
       <c r="AT121">
         <f>MAX(B119:B124)</f>
-        <v>4.0468479999999998</v>
+        <v>1</v>
       </c>
       <c r="AU121">
         <f>AVERAGEA(C119:C124)</f>
-        <v>1.1284480000000001</v>
+        <v>0.5705904346012296</v>
       </c>
       <c r="AV121">
         <f>_xlfn.STDEV.S(C119:C124)</f>
-        <v>0.48619479741628874</v>
+        <v>0.26266647412646399</v>
       </c>
       <c r="AW121">
         <f>MIN(C119:C124)</f>
-        <v>0.70451200000000003</v>
+        <v>0.36989247311827955</v>
       </c>
       <c r="AX121">
         <f>MAX(C119:C124)</f>
-        <v>1.5933440000000001</v>
+        <v>0.92399049881235162</v>
       </c>
       <c r="AY121">
         <f>AVERAGEA(D119:D124)</f>
-        <v>1.6896</v>
+        <v>0.96020067948544252</v>
       </c>
       <c r="AZ121">
         <f>_xlfn.STDEV.S(D119:D124)</f>
-        <v>0.27958013045279162</v>
+        <v>0.46449833499001592</v>
       </c>
       <c r="BA121">
         <f>MIN(D119:D124)</f>
-        <v>1.35168</v>
+        <v>0.33400809716599195</v>
       </c>
       <c r="BB121">
         <f>MAX(D119:D124)</f>
-        <v>2.02752</v>
+        <v>1.4148936170212765</v>
       </c>
       <c r="BC121">
         <f>AVERAGEA(E119:E124)</f>
-        <v>3.349504</v>
+        <v>2.6543763293498288</v>
       </c>
       <c r="BD121">
         <f>_xlfn.STDEV.S(E119:E124)</f>
-        <v>5.2379575558702909</v>
+        <v>4.6964413566835059</v>
       </c>
       <c r="BE121">
         <f>MIN(E119:E124)</f>
-        <v>0.55296000000000001</v>
+        <v>0.23481781376518221</v>
       </c>
       <c r="BF121">
         <f>MAX(E119:E124)</f>
-        <v>11.20256</v>
+        <v>9.6985815602836869</v>
       </c>
       <c r="BG121">
         <f>AVERAGEA(F119:F124)</f>
-        <v>10.110975999999999</v>
+        <v>5.3510751153610325</v>
       </c>
       <c r="BH121">
         <f>_xlfn.STDEV.S(F119:F124)</f>
-        <v>17.478692045034794</v>
+        <v>9.1536014809316271</v>
       </c>
       <c r="BI121">
         <f>MIN(F119:F124)</f>
-        <v>1.1100159999999999</v>
+        <v>0.27732793522267207</v>
       </c>
       <c r="BJ121">
         <f>MAX(F119:F124)</f>
-        <v>36.323327999999997</v>
+        <v>19.07096774193548</v>
       </c>
     </row>
     <row r="122" spans="1:62">
       <c r="A122" s="4"/>
       <c r="B122" s="4">
-        <v>1.9046400000000001</v>
+        <v>1</v>
       </c>
       <c r="C122" s="4">
-        <v>0.70451200000000003</v>
+        <v>0.36989247311827955</v>
       </c>
       <c r="D122" s="4">
-        <v>1.744896</v>
+        <v>0.91612903225806441</v>
       </c>
       <c r="E122" s="4">
-        <v>0.69222399999999995</v>
+        <v>0.36344086021505373</v>
       </c>
       <c r="F122" s="4">
-        <v>36.323327999999997</v>
-      </c>
-      <c r="G122">
-        <f t="shared" si="23"/>
-        <v>15.690309294022216</v>
+        <v>19.07096774193548</v>
+      </c>
+      <c r="G122" s="4">
+        <f>MAX(B122:F122)-MIN(B122:F122)</f>
+        <v>18.707526881720426</v>
       </c>
       <c r="H122" s="4">
-        <f t="shared" si="24"/>
-        <v>35.631103999999993</v>
-      </c>
-      <c r="I122" s="4">
-        <f t="shared" si="25"/>
-        <v>12.673023999999998</v>
+        <f>$G$123</f>
+        <v>7.352344060001057</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="18"/>
+        <v>15.542855342842234</v>
       </c>
       <c r="J122">
-        <f t="shared" si="26"/>
-        <v>26.790772735999994</v>
-      </c>
-      <c r="K122">
         <v>0</v>
       </c>
       <c r="AA122" s="4"/>
@@ -15400,9 +17747,9 @@
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
-      <c r="H123" s="4">
-        <f>AVERAGE(H119:H122)</f>
-        <v>12.673023999999998</v>
+      <c r="G123" s="4">
+        <f>AVERAGE(G119:G122)</f>
+        <v>7.352344060001057</v>
       </c>
       <c r="AA123" s="4"/>
       <c r="AB123" s="4"/>
@@ -15476,16 +17823,16 @@
       <c r="F127" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H127" s="4" t="s">
+      <c r="G127" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="H127" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="I127" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K127" s="1" t="s">
         <v>112</v>
       </c>
       <c r="AA127" s="4"/>
@@ -15500,38 +17847,34 @@
     </row>
     <row r="128" spans="1:62" ht="16">
       <c r="A128" s="4"/>
-      <c r="B128" s="18">
-        <v>831.44294400000001</v>
-      </c>
-      <c r="C128" s="18">
-        <v>493.66630400000003</v>
-      </c>
-      <c r="D128" s="18">
-        <v>1492.9715200000001</v>
-      </c>
-      <c r="E128" s="18">
-        <v>806.33036800000002</v>
-      </c>
-      <c r="F128" s="18">
-        <v>3088.1546239999998</v>
-      </c>
-      <c r="G128" s="17">
-        <f t="shared" ref="G128:G130" si="27">_xlfn.STDEV.S(B128:F128)</f>
-        <v>1041.5286333066219</v>
+      <c r="B128" s="17">
+        <v>1</v>
+      </c>
+      <c r="C128" s="17">
+        <v>0.59374645916773816</v>
+      </c>
+      <c r="D128" s="17">
+        <v>1.7956391725660013</v>
+      </c>
+      <c r="E128" s="17">
+        <v>0.96979639290799013</v>
+      </c>
+      <c r="F128" s="17">
+        <v>3.7142111148879984</v>
+      </c>
+      <c r="G128" s="4">
+        <f>MAX(B128:F128)-MIN(B128:F128)</f>
+        <v>3.1204646557202604</v>
       </c>
       <c r="H128" s="4">
-        <f>MAX(B128:F128)-MIN(B128:F128)</f>
-        <v>2594.4883199999999</v>
-      </c>
-      <c r="I128" s="4">
-        <f>$H$131</f>
-        <v>1282.74432</v>
+        <f>$G$131</f>
+        <v>175.0135911888988</v>
+      </c>
+      <c r="I128">
+        <f>H128*2.114</f>
+        <v>369.97873177333202</v>
       </c>
       <c r="J128">
-        <f>$H$131*2.114</f>
-        <v>2711.7214924800001</v>
-      </c>
-      <c r="K128">
         <v>0</v>
       </c>
       <c r="AA128" s="4"/>
@@ -15558,38 +17901,34 @@
     </row>
     <row r="129" spans="1:62" ht="16">
       <c r="A129" s="4"/>
-      <c r="B129" s="4">
-        <v>226.902016</v>
+      <c r="B129" s="17">
+        <v>1</v>
       </c>
       <c r="C129" s="4">
-        <v>2.5354239999999999</v>
+        <v>1.1174091992201603E-2</v>
       </c>
       <c r="D129" s="4">
-        <v>296.48486400000002</v>
+        <v>1.3066647411365442</v>
       </c>
       <c r="E129" s="4">
-        <v>127.430656</v>
+        <v>0.56161094663874644</v>
       </c>
       <c r="F129" s="4">
-        <v>626.83136000000002</v>
-      </c>
-      <c r="G129">
-        <f t="shared" si="27"/>
-        <v>234.93402007483397</v>
+        <v>2.7625640840493899</v>
+      </c>
+      <c r="G129" s="4">
+        <f>MAX(B129:F129)-MIN(B129:F129)</f>
+        <v>2.7513899920571885</v>
       </c>
       <c r="H129" s="4">
-        <f t="shared" ref="H129:H130" si="28">MAX(B129:F129)-MIN(B129:F129)</f>
-        <v>624.29593599999998</v>
-      </c>
-      <c r="I129" s="4">
-        <f t="shared" ref="I129:I130" si="29">$H$131</f>
-        <v>1282.74432</v>
+        <f>$G$131</f>
+        <v>175.0135911888988</v>
+      </c>
+      <c r="I129">
+        <f t="shared" ref="I129:I130" si="19">H129*2.114</f>
+        <v>369.97873177333202</v>
       </c>
       <c r="J129">
-        <f t="shared" ref="J129:J130" si="30">$H$131*2.114</f>
-        <v>2711.7214924800001</v>
-      </c>
-      <c r="K129">
         <v>0</v>
       </c>
       <c r="AA129" s="4"/>
@@ -15660,38 +17999,34 @@
     </row>
     <row r="130" spans="1:62">
       <c r="A130" s="4"/>
-      <c r="B130" s="4">
-        <v>1.2124159999999999</v>
+      <c r="B130" s="17">
+        <v>1</v>
       </c>
       <c r="C130" s="4">
-        <v>0.93388800000000005</v>
+        <v>0.7702702702702704</v>
       </c>
       <c r="D130" s="4">
-        <v>1.6138239999999999</v>
+        <v>1.3310810810810811</v>
       </c>
       <c r="E130" s="4">
-        <v>3.3710079999999998</v>
+        <v>2.7804054054054053</v>
       </c>
       <c r="F130" s="4">
-        <v>630.38259200000005</v>
-      </c>
-      <c r="G130">
-        <f t="shared" si="27"/>
-        <v>281.1199796533233</v>
+        <v>519.93918918918928</v>
+      </c>
+      <c r="G130" s="4">
+        <f>MAX(B130:F130)-MIN(B130:F130)</f>
+        <v>519.16891891891896</v>
       </c>
       <c r="H130" s="4">
-        <f t="shared" si="28"/>
-        <v>629.44870400000002</v>
-      </c>
-      <c r="I130" s="4">
-        <f t="shared" si="29"/>
-        <v>1282.74432</v>
+        <f>$G$131</f>
+        <v>175.0135911888988</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="19"/>
+        <v>369.97873177333202</v>
       </c>
       <c r="J130">
-        <f t="shared" si="30"/>
-        <v>2711.7214924800001</v>
-      </c>
-      <c r="K130">
         <v>0</v>
       </c>
       <c r="AA130" s="4"/>
@@ -15701,83 +18036,83 @@
       <c r="AE130" s="4"/>
       <c r="AQ130" s="2">
         <f>AVERAGEA(B128:B133)</f>
-        <v>353.18579199999999</v>
+        <v>1</v>
       </c>
       <c r="AR130" s="2">
         <f>_xlfn.STDEV.S(B128:B131)</f>
-        <v>429.28006763231315</v>
+        <v>0</v>
       </c>
       <c r="AS130">
         <f>MIN(B128:B133)</f>
-        <v>1.2124159999999999</v>
+        <v>1</v>
       </c>
       <c r="AT130">
         <f>MAX(B128:B133)</f>
-        <v>831.44294400000001</v>
+        <v>1</v>
       </c>
       <c r="AU130">
         <f>AVERAGEA(C128:C133)</f>
-        <v>165.711872</v>
+        <v>0.45839694047673674</v>
       </c>
       <c r="AV130">
         <f>_xlfn.STDEV.S(C128:C133)</f>
-        <v>284.01799825138158</v>
+        <v>0.39723591369173394</v>
       </c>
       <c r="AW130">
         <f>MIN(C128:C133)</f>
-        <v>0.93388800000000005</v>
+        <v>1.1174091992201603E-2</v>
       </c>
       <c r="AX130">
         <f>MAX(C128:C133)</f>
-        <v>493.66630400000003</v>
+        <v>0.7702702702702704</v>
       </c>
       <c r="AY130">
         <f>AVERAGEA(D128:D133)</f>
-        <v>597.0234026666667</v>
+        <v>1.4777949982612089</v>
       </c>
       <c r="AZ130">
         <f>_xlfn.STDEV.S(D128:D133)</f>
-        <v>789.79712855424384</v>
+        <v>0.27553172007718713</v>
       </c>
       <c r="BA130">
         <f>MIN(D128:D133)</f>
-        <v>1.6138239999999999</v>
+        <v>1.3066647411365442</v>
       </c>
       <c r="BB130">
         <f>MAX(D128:D133)</f>
-        <v>1492.9715200000001</v>
+        <v>1.7956391725660013</v>
       </c>
       <c r="BC130">
         <f>AVERAGEA(E128:E133)</f>
-        <v>312.37734399999999</v>
+        <v>1.4372709149840475</v>
       </c>
       <c r="BD130">
         <f>_xlfn.STDEV.S(E128:E133)</f>
-        <v>432.24980220299631</v>
+        <v>1.1809578883923362</v>
       </c>
       <c r="BE130">
         <f>MIN(E128:E133)</f>
-        <v>3.3710079999999998</v>
+        <v>0.56161094663874644</v>
       </c>
       <c r="BF130">
         <f>MAX(E128:E133)</f>
-        <v>806.33036800000002</v>
+        <v>2.7804054054054053</v>
       </c>
       <c r="BG130">
         <f>AVERAGEA(F128:F133)</f>
-        <v>1448.4561919999999</v>
+        <v>175.47198812937555</v>
       </c>
       <c r="BH130">
         <f>_xlfn.STDEV.S(F128:F133)</f>
-        <v>1420.0216067861866</v>
+        <v>298.31772636319221</v>
       </c>
       <c r="BI130">
         <f>MIN(F128:F133)</f>
-        <v>626.83136000000002</v>
+        <v>2.7625640840493899</v>
       </c>
       <c r="BJ130">
         <f>MAX(F128:F133)</f>
-        <v>3088.1546239999998</v>
+        <v>519.93918918918928</v>
       </c>
     </row>
     <row r="131" spans="1:62">
@@ -15787,9 +18122,9 @@
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
-      <c r="H131">
-        <f>AVERAGE(H128:H130)</f>
-        <v>1282.74432</v>
+      <c r="G131">
+        <f>AVERAGE(G128:G130)</f>
+        <v>175.0135911888988</v>
       </c>
       <c r="AA131" s="4"/>
       <c r="AB131" s="4"/>
@@ -15875,11 +18210,11 @@
       <c r="K135" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AA135" s="19"/>
-      <c r="AB135" s="19"/>
-      <c r="AC135" s="19"/>
-      <c r="AD135" s="19"/>
-      <c r="AE135" s="19"/>
+      <c r="AA135" s="18"/>
+      <c r="AB135" s="18"/>
+      <c r="AC135" s="18"/>
+      <c r="AD135" s="18"/>
+      <c r="AE135" s="18"/>
       <c r="AQ135" s="2" t="s">
         <v>17</v>
       </c>
@@ -16343,7 +18678,7 @@
         <v>44.23884799999999</v>
       </c>
       <c r="AQ146" s="2">
-        <f>AVERAGEA(B144:B149)</f>
+        <f>AVERAGEA(B144:B147)</f>
         <v>56.825855999999995</v>
       </c>
       <c r="AR146" s="2">
@@ -16351,75 +18686,75 @@
         <v>79.187994642110056</v>
       </c>
       <c r="AS146">
-        <f>MIN(B144:B149)</f>
+        <f>MIN(B144:B147)</f>
         <v>0.831488</v>
       </c>
       <c r="AT146">
-        <f>MAX(B144:B149)</f>
+        <f>MAX(B144:B147)</f>
         <v>112.820224</v>
       </c>
       <c r="AU146">
-        <f>AVERAGEA(C144:C149)</f>
+        <f>AVERAGEA(C144:C147)</f>
         <v>15.937536</v>
       </c>
       <c r="AV146">
-        <f>_xlfn.STDEV.S(C144:C149)</f>
+        <f>_xlfn.STDEV.S(C144:C147)</f>
         <v>19.127227117387609</v>
       </c>
       <c r="AW146">
-        <f>MIN(C144:C149)</f>
+        <f>MIN(C144:C147)</f>
         <v>2.412544</v>
       </c>
       <c r="AX146">
-        <f>MAX(C144:C149)</f>
+        <f>MAX(C144:C147)</f>
         <v>29.462527999999999</v>
       </c>
       <c r="AY146">
-        <f>AVERAGEA(D144:D149)</f>
+        <f>AVERAGEA(D144:D147)</f>
         <v>23.861248</v>
       </c>
       <c r="AZ146">
-        <f>_xlfn.STDEV.S(D144:D149)</f>
+        <f>_xlfn.STDEV.S(D144:D147)</f>
         <v>30.350425948380497</v>
       </c>
       <c r="BA146">
-        <f>MIN(D144:D149)</f>
+        <f>MIN(D144:D147)</f>
         <v>2.4002560000000002</v>
       </c>
       <c r="BB146">
-        <f>MAX(D144:D149)</f>
+        <f>MAX(D144:D147)</f>
         <v>45.322240000000001</v>
       </c>
       <c r="BC146">
-        <f>AVERAGEA(E144:E149)</f>
+        <f>AVERAGEA(E144:E147)</f>
         <v>14.966784000000001</v>
       </c>
       <c r="BD146">
-        <f>_xlfn.STDEV.S(E144:E149)</f>
+        <f>_xlfn.STDEV.S(E144:E147)</f>
         <v>16.624815816748168</v>
       </c>
       <c r="BE146">
-        <f>MIN(E144:E149)</f>
+        <f>MIN(E144:E147)</f>
         <v>3.2112639999999999</v>
       </c>
       <c r="BF146">
-        <f>MAX(E144:E149)</f>
+        <f>MAX(E144:E147)</f>
         <v>26.722304000000001</v>
       </c>
       <c r="BG146">
-        <f>AVERAGEA(F144:F149)</f>
+        <f>AVERAGEA(F144:F147)</f>
         <v>50.579456</v>
       </c>
       <c r="BH146">
-        <f>_xlfn.STDEV.S(F144:F149)</f>
+        <f>_xlfn.STDEV.S(F144:F147)</f>
         <v>69.966145589753566</v>
       </c>
       <c r="BI146">
-        <f>MIN(F144:F149)</f>
+        <f>MIN(F144:F147)</f>
         <v>1.10592</v>
       </c>
       <c r="BJ146">
-        <f>MAX(F144:F149)</f>
+        <f>MAX(F144:F147)</f>
         <v>100.052992</v>
       </c>
     </row>
@@ -16427,15 +18762,52 @@
       <c r="AQ147" s="2"/>
       <c r="AR147" s="2"/>
     </row>
-    <row r="148" spans="1:62">
+    <row r="148" spans="1:62" ht="16">
+      <c r="B148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
       <c r="AQ148" s="2"/>
       <c r="AR148" s="2"/>
     </row>
-    <row r="149" spans="1:62">
+    <row r="149" spans="1:62" ht="16">
+      <c r="B149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AQ149" s="2"/>
       <c r="AR149" s="2"/>
     </row>
     <row r="150" spans="1:62">
+      <c r="B150" s="4">
+        <v>303.72249599999998</v>
+      </c>
+      <c r="C150" s="4">
+        <v>50.974719999999998</v>
+      </c>
+      <c r="D150" s="4">
+        <v>36.433920000000001</v>
+      </c>
+      <c r="E150" s="4">
+        <v>28.102656</v>
+      </c>
+      <c r="F150" s="4">
+        <v>46.981119999999997</v>
+      </c>
       <c r="AQ150" s="2"/>
       <c r="AR150" s="2"/>
     </row>

--- a/stats1000_Memory.xlsx
+++ b/stats1000_Memory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-2720" yWindow="-23940" windowWidth="34980" windowHeight="21840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34980" windowHeight="21900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -3741,11 +3741,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2061643416"/>
-        <c:axId val="-2044712840"/>
+        <c:axId val="-2117987832"/>
+        <c:axId val="-2117990968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2061643416"/>
+        <c:axId val="-2117987832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3764,7 +3764,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044712840"/>
+        <c:crossAx val="-2117990968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3772,7 +3772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2044712840"/>
+        <c:axId val="-2117990968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3795,7 +3795,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3812,7 +3811,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2061643416"/>
+        <c:crossAx val="-2117987832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4065,8 +4064,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1861096808"/>
-        <c:axId val="1860904168"/>
+        <c:axId val="-2114011800"/>
+        <c:axId val="-2114006312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4729,11 +4728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1861096808"/>
-        <c:axId val="1860904168"/>
+        <c:axId val="-2114011800"/>
+        <c:axId val="-2114006312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1861096808"/>
+        <c:axId val="-2114011800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4778,7 +4777,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1860904168"/>
+        <c:crossAx val="-2114006312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4786,7 +4785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1860904168"/>
+        <c:axId val="-2114006312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4833,7 +4832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1861096808"/>
+        <c:crossAx val="-2114011800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5092,8 +5091,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1860755944"/>
-        <c:axId val="1860761576"/>
+        <c:axId val="-2114490056"/>
+        <c:axId val="-2114495768"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5683,11 +5682,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1860755944"/>
-        <c:axId val="1860761576"/>
+        <c:axId val="-2114490056"/>
+        <c:axId val="-2114495768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1860755944"/>
+        <c:axId val="-2114490056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5741,7 +5740,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1860761576"/>
+        <c:crossAx val="-2114495768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5751,7 +5750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1860761576"/>
+        <c:axId val="-2114495768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5821,7 +5820,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1860755944"/>
+        <c:crossAx val="-2114490056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6059,8 +6058,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="1860866712"/>
-        <c:axId val="-2070496968"/>
+        <c:axId val="-2114556504"/>
+        <c:axId val="-2114562616"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6533,11 +6532,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1860866712"/>
-        <c:axId val="-2070496968"/>
+        <c:axId val="-2114556504"/>
+        <c:axId val="-2114562616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1860866712"/>
+        <c:axId val="-2114556504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6597,7 +6596,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2070496968"/>
+        <c:crossAx val="-2114562616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6607,7 +6606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2070496968"/>
+        <c:axId val="-2114562616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6671,7 +6670,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1860866712"/>
+        <c:crossAx val="-2114556504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6903,8 +6902,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="1860478744"/>
-        <c:axId val="1860390952"/>
+        <c:axId val="-2114622312"/>
+        <c:axId val="-2114628424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7356,11 +7355,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1860478744"/>
-        <c:axId val="1860390952"/>
+        <c:axId val="-2114622312"/>
+        <c:axId val="-2114628424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1860478744"/>
+        <c:axId val="-2114622312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7420,7 +7419,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1860390952"/>
+        <c:crossAx val="-2114628424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7430,7 +7429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1860390952"/>
+        <c:axId val="-2114628424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7500,7 +7499,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1860478744"/>
+        <c:crossAx val="-2114622312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7732,8 +7731,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="1861041448"/>
-        <c:axId val="1861047400"/>
+        <c:axId val="-2114684664"/>
+        <c:axId val="-2114690712"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8177,11 +8176,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1861041448"/>
-        <c:axId val="1861047400"/>
+        <c:axId val="-2114684664"/>
+        <c:axId val="-2114690712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1861041448"/>
+        <c:axId val="-2114684664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8241,7 +8240,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1861047400"/>
+        <c:crossAx val="-2114690712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8251,7 +8250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1861047400"/>
+        <c:axId val="-2114690712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8321,7 +8320,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1861041448"/>
+        <c:crossAx val="-2114684664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8553,8 +8552,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-1992734904"/>
-        <c:axId val="1860850440"/>
+        <c:axId val="-2114750936"/>
+        <c:axId val="-2114757016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9006,11 +9005,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1992734904"/>
-        <c:axId val="1860850440"/>
+        <c:axId val="-2114750936"/>
+        <c:axId val="-2114757016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1992734904"/>
+        <c:axId val="-2114750936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9070,7 +9069,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1860850440"/>
+        <c:crossAx val="-2114757016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9080,7 +9079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1860850440"/>
+        <c:axId val="-2114757016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9150,7 +9149,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1992734904"/>
+        <c:crossAx val="-2114750936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9383,8 +9382,8 @@
         </c:dLbls>
         <c:gapWidth val="500"/>
         <c:overlap val="-45"/>
-        <c:axId val="-1993266216"/>
-        <c:axId val="1860451800"/>
+        <c:axId val="-2114814312"/>
+        <c:axId val="-2114820392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9828,11 +9827,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1993266216"/>
-        <c:axId val="1860451800"/>
+        <c:axId val="-2114814312"/>
+        <c:axId val="-2114820392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1993266216"/>
+        <c:axId val="-2114814312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9892,7 +9891,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1860451800"/>
+        <c:crossAx val="-2114820392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9902,7 +9901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1860451800"/>
+        <c:axId val="-2114820392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9972,7 +9971,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1993266216"/>
+        <c:crossAx val="-2114814312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100.0"/>
@@ -10403,11 +10402,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2055472680"/>
-        <c:axId val="-2056164552"/>
+        <c:axId val="-2118062632"/>
+        <c:axId val="-2118065624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2055472680"/>
+        <c:axId val="-2118062632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10416,7 +10415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2056164552"/>
+        <c:crossAx val="-2118065624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10424,7 +10423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2056164552"/>
+        <c:axId val="-2118065624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10435,7 +10434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2055472680"/>
+        <c:crossAx val="-2118062632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10682,8 +10681,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2055314840"/>
-        <c:axId val="-2062344408"/>
+        <c:axId val="-2114466584"/>
+        <c:axId val="-2114460440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11225,11 +11224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2055314840"/>
-        <c:axId val="-2062344408"/>
+        <c:axId val="-2114466584"/>
+        <c:axId val="-2114460440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2055314840"/>
+        <c:axId val="-2114466584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11303,7 +11302,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2062344408"/>
+        <c:crossAx val="-2114460440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11313,7 +11312,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2062344408"/>
+        <c:axId val="-2114460440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11397,7 +11396,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055314840"/>
+        <c:crossAx val="-2114466584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11779,8 +11778,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2055825016"/>
-        <c:axId val="-2044304936"/>
+        <c:axId val="-2114394696"/>
+        <c:axId val="-2114388552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12610,11 +12609,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2055825016"/>
-        <c:axId val="-2044304936"/>
+        <c:axId val="-2114394696"/>
+        <c:axId val="-2114388552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2055825016"/>
+        <c:axId val="-2114394696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12688,7 +12687,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044304936"/>
+        <c:crossAx val="-2114388552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12698,7 +12697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2044304936"/>
+        <c:axId val="-2114388552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12782,7 +12781,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055825016"/>
+        <c:crossAx val="-2114394696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13029,8 +13028,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2044155400"/>
-        <c:axId val="-1992332856"/>
+        <c:axId val="-2114329432"/>
+        <c:axId val="-2114323288"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13455,11 +13454,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2044155400"/>
-        <c:axId val="-1992332856"/>
+        <c:axId val="-2114329432"/>
+        <c:axId val="-2114323288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2044155400"/>
+        <c:axId val="-2114329432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13533,7 +13532,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1992332856"/>
+        <c:crossAx val="-2114323288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13543,7 +13542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1992332856"/>
+        <c:axId val="-2114323288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13627,7 +13626,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044155400"/>
+        <c:crossAx val="-2114329432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13868,8 +13867,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2056130248"/>
-        <c:axId val="-1993103720"/>
+        <c:axId val="-2114265400"/>
+        <c:axId val="-2114259256"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14276,11 +14275,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2056130248"/>
-        <c:axId val="-1993103720"/>
+        <c:axId val="-2114265400"/>
+        <c:axId val="-2114259256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2056130248"/>
+        <c:axId val="-2114265400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14354,7 +14353,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1993103720"/>
+        <c:crossAx val="-2114259256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14364,7 +14363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1993103720"/>
+        <c:axId val="-2114259256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14448,7 +14447,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056130248"/>
+        <c:crossAx val="-2114265400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14686,8 +14685,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2055971608"/>
-        <c:axId val="-2055563800"/>
+        <c:axId val="-2114201256"/>
+        <c:axId val="-2114195112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14717,7 +14716,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -14959,7 +14957,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -15085,11 +15082,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2055971608"/>
-        <c:axId val="-2055563800"/>
+        <c:axId val="-2114201256"/>
+        <c:axId val="-2114195112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2055971608"/>
+        <c:axId val="-2114201256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15163,7 +15160,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055563800"/>
+        <c:crossAx val="-2114195112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15173,7 +15170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2055563800"/>
+        <c:axId val="-2114195112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15257,7 +15254,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2055971608"/>
+        <c:crossAx val="-2114201256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15498,8 +15495,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1860915336"/>
-        <c:axId val="-2044602984"/>
+        <c:axId val="-2114137272"/>
+        <c:axId val="-2114131128"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15529,7 +15526,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -15777,7 +15773,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -15906,11 +15901,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1860915336"/>
-        <c:axId val="-2044602984"/>
+        <c:axId val="-2114137272"/>
+        <c:axId val="-2114131128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1860915336"/>
+        <c:axId val="-2114137272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15984,7 +15979,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2044602984"/>
+        <c:crossAx val="-2114131128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15994,7 +15989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2044602984"/>
+        <c:axId val="-2114131128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16078,7 +16073,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1860915336"/>
+        <c:crossAx val="-2114137272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16316,8 +16311,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1860321752"/>
-        <c:axId val="1860327800"/>
+        <c:axId val="-2114073192"/>
+        <c:axId val="-2114067048"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -16347,7 +16342,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -16589,7 +16583,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -16715,11 +16708,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1860321752"/>
-        <c:axId val="1860327800"/>
+        <c:axId val="-2114073192"/>
+        <c:axId val="-2114067048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1860321752"/>
+        <c:axId val="-2114073192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16793,7 +16786,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1860327800"/>
+        <c:crossAx val="-2114067048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16803,7 +16796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1860327800"/>
+        <c:axId val="-2114067048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16887,7 +16880,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1860321752"/>
+        <c:crossAx val="-2114073192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18019,7 +18012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:BJ158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="M138" sqref="M138"/>
     </sheetView>
   </sheetViews>

--- a/stats1000_Memory.xlsx
+++ b/stats1000_Memory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34980" windowHeight="21900" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="-20840" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="132">
   <si>
     <t>JAVA</t>
   </si>
@@ -370,7 +370,55 @@
     <t>PHP &amp; JAVA</t>
   </si>
   <si>
-    <t>txt math</t>
+    <t xml:space="preserve"> [1] 0.35164213 0.53790549 0.43581364 0.19685192 0.07065593 0.45403134</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [7] 0.35120779 0.55457259 0.38966804 0.33431504 0.59231954 0.41348130</t>
+  </si>
+  <si>
+    <t>[13] 0.42421830 0.35229688 0.45709785 0.48145925 0.36905127 0.71031084</t>
+  </si>
+  <si>
+    <t>[19] 0.44166110 0.54800983 0.48418423 0.48870734 0.45969623 0.82531574</t>
+  </si>
+  <si>
+    <t>[25] 5.90052436 0.37837423 0.45993111 0.27035347 7.96009324 0.50625054</t>
+  </si>
+  <si>
+    <t>[31] 0.51406528 0.42538981 0.31510286 0.58273204 0.27544214 0.39305145</t>
+  </si>
+  <si>
+    <t>[37] 0.40482619 0.37911546 0.50794460 4.23670009 0.46319724 0.38472260</t>
+  </si>
+  <si>
+    <t>[43] 0.03986372 0.53876342 0.42813374 1.63115991 0.20322393 0.52722400</t>
+  </si>
+  <si>
+    <t>[49] 0.41428827 0.04313522 2.20811784 1.68176915 0.37676776 0.20775420</t>
+  </si>
+  <si>
+    <t>[55] 0.40177313 0.42183005 0.25905736 0.51491300 2.41179371 0.15815953</t>
+  </si>
+  <si>
+    <t>[61] 0.55430312 0.23807798 0.45414795 0.48520650 0.35496537 0.52243121</t>
+  </si>
+  <si>
+    <t>[67] 0.42894650 0.51080391 0.74284653 0.56273346 0.42768906 0.61529940</t>
+  </si>
+  <si>
+    <t>[73] 0.45026237 0.36362484 0.36588684 0.05585000 0.46752316 0.53959090</t>
+  </si>
+  <si>
+    <t>[79] 0.40865635 0.44258530 0.56932948 5.58433481 0.74844981 0.52216841</t>
+  </si>
+  <si>
+    <t>[85] 0.36665421 0.55080731 0.12071158 0.40946044 0.33505415 0.54704476</t>
+  </si>
+  <si>
+    <t>&gt; res$critSD</t>
+  </si>
+  <si>
+    <t>[1] 2.716203</t>
   </si>
 </sst>
 </file>
@@ -469,8 +517,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1577">
+  <cellStyleXfs count="1597">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2075,7 +2143,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1577">
+  <cellStyles count="1597">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -2864,6 +2932,16 @@
     <cellStyle name="Lien hypertexte" xfId="1571" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="1573" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="1575" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1577" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1579" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1581" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1583" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1585" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1587" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1589" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1591" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1593" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1595" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -3652,6 +3730,16 @@
     <cellStyle name="Lien hypertexte visité" xfId="1572" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="1574" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="1576" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1578" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1580" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1582" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1584" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1586" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1588" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1590" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1592" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1594" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1596" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3741,11 +3829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2117987832"/>
-        <c:axId val="-2117990968"/>
+        <c:axId val="-2096203272"/>
+        <c:axId val="-2084327448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2117987832"/>
+        <c:axId val="-2096203272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3764,7 +3852,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117990968"/>
+        <c:crossAx val="-2084327448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3772,7 +3860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117990968"/>
+        <c:axId val="-2084327448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3795,6 +3883,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3811,7 +3900,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117987832"/>
+        <c:crossAx val="-2096203272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4064,8 +4153,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2114011800"/>
-        <c:axId val="-2114006312"/>
+        <c:axId val="-2071393960"/>
+        <c:axId val="-2071388472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4728,11 +4817,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2114011800"/>
-        <c:axId val="-2114006312"/>
+        <c:axId val="-2071393960"/>
+        <c:axId val="-2071388472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114011800"/>
+        <c:axId val="-2071393960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4777,7 +4866,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114006312"/>
+        <c:crossAx val="-2071388472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4785,7 +4874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114006312"/>
+        <c:axId val="-2071388472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4832,7 +4921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114011800"/>
+        <c:crossAx val="-2071393960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5091,8 +5180,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2114490056"/>
-        <c:axId val="-2114495768"/>
+        <c:axId val="-2071323064"/>
+        <c:axId val="-2071317400"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5682,11 +5771,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2114490056"/>
-        <c:axId val="-2114495768"/>
+        <c:axId val="-2071323064"/>
+        <c:axId val="-2071317400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114490056"/>
+        <c:axId val="-2071323064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5740,7 +5829,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114495768"/>
+        <c:crossAx val="-2071317400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5750,7 +5839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114495768"/>
+        <c:axId val="-2071317400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5820,7 +5909,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114490056"/>
+        <c:crossAx val="-2071323064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6058,8 +6147,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-2114556504"/>
-        <c:axId val="-2114562616"/>
+        <c:axId val="-2071246200"/>
+        <c:axId val="-2093548568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6532,11 +6621,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2114556504"/>
-        <c:axId val="-2114562616"/>
+        <c:axId val="-2071246200"/>
+        <c:axId val="-2093548568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114556504"/>
+        <c:axId val="-2071246200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6596,7 +6685,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114562616"/>
+        <c:crossAx val="-2093548568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6606,7 +6695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114562616"/>
+        <c:axId val="-2093548568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6670,7 +6759,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114556504"/>
+        <c:crossAx val="-2071246200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6902,8 +6991,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-2114622312"/>
-        <c:axId val="-2114628424"/>
+        <c:axId val="-2093432248"/>
+        <c:axId val="-2105911336"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7355,11 +7444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2114622312"/>
-        <c:axId val="-2114628424"/>
+        <c:axId val="-2093432248"/>
+        <c:axId val="-2105911336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114622312"/>
+        <c:axId val="-2093432248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7419,7 +7508,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114628424"/>
+        <c:crossAx val="-2105911336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7429,7 +7518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114628424"/>
+        <c:axId val="-2105911336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7499,7 +7588,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114622312"/>
+        <c:crossAx val="-2093432248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7731,8 +7820,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-2114684664"/>
-        <c:axId val="-2114690712"/>
+        <c:axId val="-2093210104"/>
+        <c:axId val="-2093227832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8176,11 +8265,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2114684664"/>
-        <c:axId val="-2114690712"/>
+        <c:axId val="-2093210104"/>
+        <c:axId val="-2093227832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114684664"/>
+        <c:axId val="-2093210104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8240,7 +8329,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114690712"/>
+        <c:crossAx val="-2093227832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8250,7 +8339,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114690712"/>
+        <c:axId val="-2093227832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8320,7 +8409,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114684664"/>
+        <c:crossAx val="-2093210104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8552,8 +8641,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-2114750936"/>
-        <c:axId val="-2114757016"/>
+        <c:axId val="-2093166056"/>
+        <c:axId val="-2093222472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9005,11 +9094,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2114750936"/>
-        <c:axId val="-2114757016"/>
+        <c:axId val="-2093166056"/>
+        <c:axId val="-2093222472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114750936"/>
+        <c:axId val="-2093166056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9069,7 +9158,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114757016"/>
+        <c:crossAx val="-2093222472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9079,7 +9168,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114757016"/>
+        <c:axId val="-2093222472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9149,7 +9238,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114750936"/>
+        <c:crossAx val="-2093166056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9382,8 +9471,8 @@
         </c:dLbls>
         <c:gapWidth val="500"/>
         <c:overlap val="-45"/>
-        <c:axId val="-2114814312"/>
-        <c:axId val="-2114820392"/>
+        <c:axId val="-2093314488"/>
+        <c:axId val="-2093324568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9827,11 +9916,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2114814312"/>
-        <c:axId val="-2114820392"/>
+        <c:axId val="-2093314488"/>
+        <c:axId val="-2093324568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114814312"/>
+        <c:axId val="-2093314488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9891,7 +9980,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114820392"/>
+        <c:crossAx val="-2093324568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9901,7 +9990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114820392"/>
+        <c:axId val="-2093324568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9971,7 +10060,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114814312"/>
+        <c:crossAx val="-2093314488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100.0"/>
@@ -10402,11 +10491,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2118062632"/>
-        <c:axId val="-2118065624"/>
+        <c:axId val="-2097121096"/>
+        <c:axId val="-2097118120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2118062632"/>
+        <c:axId val="-2097121096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10415,7 +10504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118065624"/>
+        <c:crossAx val="-2097118120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10423,7 +10512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2118065624"/>
+        <c:axId val="-2097118120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10434,7 +10523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118062632"/>
+        <c:crossAx val="-2097121096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10681,8 +10770,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2114466584"/>
-        <c:axId val="-2114460440"/>
+        <c:axId val="-2071207192"/>
+        <c:axId val="-2071179096"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11224,11 +11313,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2114466584"/>
-        <c:axId val="-2114460440"/>
+        <c:axId val="-2071207192"/>
+        <c:axId val="-2071179096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114466584"/>
+        <c:axId val="-2071207192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11302,7 +11391,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114460440"/>
+        <c:crossAx val="-2071179096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11312,7 +11401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114460440"/>
+        <c:axId val="-2071179096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11396,7 +11485,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114466584"/>
+        <c:crossAx val="-2071207192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11778,8 +11867,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2114394696"/>
-        <c:axId val="-2114388552"/>
+        <c:axId val="-2085939384"/>
+        <c:axId val="-2096123032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12609,11 +12698,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2114394696"/>
-        <c:axId val="-2114388552"/>
+        <c:axId val="-2085939384"/>
+        <c:axId val="-2096123032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114394696"/>
+        <c:axId val="-2085939384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12687,7 +12776,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114388552"/>
+        <c:crossAx val="-2096123032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12697,7 +12786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114388552"/>
+        <c:axId val="-2096123032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12781,7 +12870,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114394696"/>
+        <c:crossAx val="-2085939384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13028,8 +13117,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2114329432"/>
-        <c:axId val="-2114323288"/>
+        <c:axId val="-2083747400"/>
+        <c:axId val="-2085832984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13454,11 +13543,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2114329432"/>
-        <c:axId val="-2114323288"/>
+        <c:axId val="-2083747400"/>
+        <c:axId val="-2085832984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114329432"/>
+        <c:axId val="-2083747400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13532,7 +13621,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114323288"/>
+        <c:crossAx val="-2085832984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13542,7 +13631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114323288"/>
+        <c:axId val="-2085832984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13626,7 +13715,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114329432"/>
+        <c:crossAx val="-2083747400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13867,8 +13956,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2114265400"/>
-        <c:axId val="-2114259256"/>
+        <c:axId val="-2093993112"/>
+        <c:axId val="-2071459880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14275,11 +14364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2114265400"/>
-        <c:axId val="-2114259256"/>
+        <c:axId val="-2093993112"/>
+        <c:axId val="-2071459880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114265400"/>
+        <c:axId val="-2093993112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14353,7 +14442,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114259256"/>
+        <c:crossAx val="-2071459880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14363,7 +14452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114259256"/>
+        <c:axId val="-2071459880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14447,7 +14536,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114265400"/>
+        <c:crossAx val="-2093993112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14685,8 +14774,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2114201256"/>
-        <c:axId val="-2114195112"/>
+        <c:axId val="-2071399656"/>
+        <c:axId val="-2071472744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14716,6 +14805,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -14957,6 +15047,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -15082,11 +15173,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2114201256"/>
-        <c:axId val="-2114195112"/>
+        <c:axId val="-2071399656"/>
+        <c:axId val="-2071472744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114201256"/>
+        <c:axId val="-2071399656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15160,7 +15251,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114195112"/>
+        <c:crossAx val="-2071472744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15170,7 +15261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114195112"/>
+        <c:axId val="-2071472744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15254,7 +15345,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114201256"/>
+        <c:crossAx val="-2071399656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15495,8 +15586,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2114137272"/>
-        <c:axId val="-2114131128"/>
+        <c:axId val="-2093987832"/>
+        <c:axId val="-2105957512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15526,6 +15617,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -15773,6 +15865,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -15901,11 +15994,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2114137272"/>
-        <c:axId val="-2114131128"/>
+        <c:axId val="-2093987832"/>
+        <c:axId val="-2105957512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114137272"/>
+        <c:axId val="-2093987832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15979,7 +16072,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114131128"/>
+        <c:crossAx val="-2105957512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15989,7 +16082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114131128"/>
+        <c:axId val="-2105957512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16073,7 +16166,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114137272"/>
+        <c:crossAx val="-2093987832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16311,8 +16404,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2114073192"/>
-        <c:axId val="-2114067048"/>
+        <c:axId val="-2107559816"/>
+        <c:axId val="-2084039160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -16342,6 +16435,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -16583,6 +16677,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -16708,11 +16803,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2114073192"/>
-        <c:axId val="-2114067048"/>
+        <c:axId val="-2107559816"/>
+        <c:axId val="-2084039160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2114073192"/>
+        <c:axId val="-2107559816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16786,7 +16881,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114067048"/>
+        <c:crossAx val="-2084039160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16796,7 +16891,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2114067048"/>
+        <c:axId val="-2084039160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16880,7 +16975,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2114073192"/>
+        <c:crossAx val="-2107559816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17576,11 +17671,6 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
-        <row r="7">
-          <cell r="G7">
-            <v>1.7034813925570229</v>
-          </cell>
-        </row>
         <row r="87">
           <cell r="J87">
             <v>0</v>
@@ -18010,10 +18100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:BJ158"/>
+  <dimension ref="A6:BJ172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="M138" sqref="M138"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="I173" sqref="I173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -26058,9 +26148,7 @@
         <v>0</v>
       </c>
       <c r="L137" s="4"/>
-      <c r="M137" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="M137" s="4"/>
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
       <c r="P137" s="4"/>
@@ -26695,16 +26783,95 @@
       <c r="AR155" s="2"/>
     </row>
     <row r="156" spans="1:62">
+      <c r="L156" t="s">
+        <v>115</v>
+      </c>
       <c r="AQ156" s="2"/>
       <c r="AR156" s="2"/>
     </row>
     <row r="157" spans="1:62">
+      <c r="L157" t="s">
+        <v>116</v>
+      </c>
       <c r="AQ157" s="2"/>
       <c r="AR157" s="2"/>
     </row>
     <row r="158" spans="1:62">
+      <c r="L158" t="s">
+        <v>117</v>
+      </c>
       <c r="AQ158" s="2"/>
       <c r="AR158" s="2"/>
+    </row>
+    <row r="159" spans="1:62">
+      <c r="L159" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="160" spans="1:62">
+      <c r="L160" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="161" spans="12:12">
+      <c r="L161" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="162" spans="12:12">
+      <c r="L162" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="163" spans="12:12">
+      <c r="L163" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="164" spans="12:12">
+      <c r="L164" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="165" spans="12:12">
+      <c r="L165" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="166" spans="12:12">
+      <c r="L166" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="167" spans="12:12">
+      <c r="L167" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="168" spans="12:12">
+      <c r="L168" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="169" spans="12:12">
+      <c r="L169" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="170" spans="12:12">
+      <c r="L170" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="171" spans="12:12">
+      <c r="L171" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="172" spans="12:12">
+      <c r="L172" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stats1000_Memory.xlsx
+++ b/stats1000_Memory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="-20840" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="-5440" yWindow="-18980" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -517,8 +517,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1597">
+  <cellStyleXfs count="1603">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2143,7 +2149,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1597">
+  <cellStyles count="1603">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -2942,6 +2948,9 @@
     <cellStyle name="Lien hypertexte" xfId="1591" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="1593" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="1595" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1597" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1599" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1601" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -3740,6 +3749,9 @@
     <cellStyle name="Lien hypertexte visité" xfId="1592" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="1594" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="1596" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1598" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1600" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1602" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3829,11 +3841,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2096203272"/>
-        <c:axId val="-2084327448"/>
+        <c:axId val="-2107744600"/>
+        <c:axId val="-2107741768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2096203272"/>
+        <c:axId val="-2107744600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3852,7 +3864,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2084327448"/>
+        <c:crossAx val="-2107741768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3860,7 +3872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2084327448"/>
+        <c:axId val="-2107741768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3900,7 +3912,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096203272"/>
+        <c:crossAx val="-2107744600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4153,8 +4165,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2071393960"/>
-        <c:axId val="-2071388472"/>
+        <c:axId val="-2064616712"/>
+        <c:axId val="-2064014888"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4817,11 +4829,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071393960"/>
-        <c:axId val="-2071388472"/>
+        <c:axId val="-2064616712"/>
+        <c:axId val="-2064014888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2071393960"/>
+        <c:axId val="-2064616712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4866,7 +4878,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071388472"/>
+        <c:crossAx val="-2064014888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4874,7 +4886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071388472"/>
+        <c:axId val="-2064014888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4902,7 +4914,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Performance variation</a:t>
+                  <a:t>Memory usage variation</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4921,7 +4933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071393960"/>
+        <c:crossAx val="-2064616712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5180,8 +5192,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2071323064"/>
-        <c:axId val="-2071317400"/>
+        <c:axId val="-2063617640"/>
+        <c:axId val="-2064357512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5771,11 +5783,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071323064"/>
-        <c:axId val="-2071317400"/>
+        <c:axId val="-2063617640"/>
+        <c:axId val="-2064357512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2071323064"/>
+        <c:axId val="-2063617640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5829,7 +5841,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071317400"/>
+        <c:crossAx val="-2064357512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5839,7 +5851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071317400"/>
+        <c:axId val="-2064357512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5866,7 +5878,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Performance variation</a:t>
+                  <a:t>Memory usage variation</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5909,7 +5921,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071323064"/>
+        <c:crossAx val="-2063617640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6147,8 +6159,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-2071246200"/>
-        <c:axId val="-2093548568"/>
+        <c:axId val="-2063979496"/>
+        <c:axId val="2040750824"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6621,11 +6633,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071246200"/>
-        <c:axId val="-2093548568"/>
+        <c:axId val="-2063979496"/>
+        <c:axId val="2040750824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2071246200"/>
+        <c:axId val="-2063979496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6685,7 +6697,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093548568"/>
+        <c:crossAx val="2040750824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6695,7 +6707,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2093548568"/>
+        <c:axId val="2040750824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6721,9 +6733,12 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Performance variation</a:t>
+                  <a:rPr lang="fr-FR" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Memory usage variation</a:t>
                 </a:r>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6759,7 +6774,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071246200"/>
+        <c:crossAx val="-2063979496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6991,8 +7006,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-2093432248"/>
-        <c:axId val="-2105911336"/>
+        <c:axId val="-2088888680"/>
+        <c:axId val="-2088876952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7444,11 +7459,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2093432248"/>
-        <c:axId val="-2105911336"/>
+        <c:axId val="-2088888680"/>
+        <c:axId val="-2088876952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2093432248"/>
+        <c:axId val="-2088888680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7508,7 +7523,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105911336"/>
+        <c:crossAx val="-2088876952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7518,7 +7533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2105911336"/>
+        <c:axId val="-2088876952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7544,8 +7559,14 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="fr-FR" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Memory usage </a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Performance variation</a:t>
+                  <a:t>variation</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7588,7 +7609,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093432248"/>
+        <c:crossAx val="-2088888680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7820,8 +7841,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-2093210104"/>
-        <c:axId val="-2093227832"/>
+        <c:axId val="-2089376760"/>
+        <c:axId val="-2089390280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8265,11 +8286,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2093210104"/>
-        <c:axId val="-2093227832"/>
+        <c:axId val="-2089376760"/>
+        <c:axId val="-2089390280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2093210104"/>
+        <c:axId val="-2089376760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8329,7 +8350,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093227832"/>
+        <c:crossAx val="-2089390280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8339,7 +8360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2093227832"/>
+        <c:axId val="-2089390280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8365,8 +8386,14 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="fr-FR" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Memory usage </a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Performance variation</a:t>
+                  <a:t>variation</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8409,7 +8436,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093210104"/>
+        <c:crossAx val="-2089376760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8641,8 +8668,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-2093166056"/>
-        <c:axId val="-2093222472"/>
+        <c:axId val="-2061419576"/>
+        <c:axId val="-2060709272"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9094,11 +9121,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2093166056"/>
-        <c:axId val="-2093222472"/>
+        <c:axId val="-2061419576"/>
+        <c:axId val="-2060709272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2093166056"/>
+        <c:axId val="-2061419576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9158,7 +9185,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093222472"/>
+        <c:crossAx val="-2060709272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9168,7 +9195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2093222472"/>
+        <c:axId val="-2060709272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9194,8 +9221,14 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="fr-FR" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Memory usage </a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Perforamnce variation</a:t>
+                  <a:t>variation</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9238,7 +9271,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093166056"/>
+        <c:crossAx val="-2061419576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9471,8 +9504,8 @@
         </c:dLbls>
         <c:gapWidth val="500"/>
         <c:overlap val="-45"/>
-        <c:axId val="-2093314488"/>
-        <c:axId val="-2093324568"/>
+        <c:axId val="-2060979448"/>
+        <c:axId val="-2061231320"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9916,11 +9949,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2093314488"/>
-        <c:axId val="-2093324568"/>
+        <c:axId val="-2060979448"/>
+        <c:axId val="-2061231320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2093314488"/>
+        <c:axId val="-2060979448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9980,7 +10013,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093324568"/>
+        <c:crossAx val="-2061231320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9990,7 +10023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2093324568"/>
+        <c:axId val="-2061231320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10016,8 +10049,14 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="fr-FR" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Memory usage </a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Performance variation</a:t>
+                  <a:t>variation</a:t>
                 </a:r>
               </a:p>
               <a:p>
@@ -10060,7 +10099,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093314488"/>
+        <c:crossAx val="-2060979448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100.0"/>
@@ -10491,11 +10530,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2097121096"/>
-        <c:axId val="-2097118120"/>
+        <c:axId val="-2108576536"/>
+        <c:axId val="-2108573688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2097121096"/>
+        <c:axId val="-2108576536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10504,7 +10543,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097118120"/>
+        <c:crossAx val="-2108573688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10512,7 +10551,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097118120"/>
+        <c:axId val="-2108573688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10523,7 +10562,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097121096"/>
+        <c:crossAx val="-2108576536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10770,8 +10809,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2071207192"/>
-        <c:axId val="-2071179096"/>
+        <c:axId val="-2108346440"/>
+        <c:axId val="-2108238744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11313,11 +11352,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071207192"/>
-        <c:axId val="-2071179096"/>
+        <c:axId val="-2108346440"/>
+        <c:axId val="-2108238744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2071207192"/>
+        <c:axId val="-2108346440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11391,7 +11430,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071179096"/>
+        <c:crossAx val="-2108238744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11401,7 +11440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071179096"/>
+        <c:axId val="-2108238744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11485,7 +11524,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071207192"/>
+        <c:crossAx val="-2108346440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11867,8 +11906,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2085939384"/>
-        <c:axId val="-2096123032"/>
+        <c:axId val="-2089033352"/>
+        <c:axId val="-2089298728"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12698,11 +12737,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2085939384"/>
-        <c:axId val="-2096123032"/>
+        <c:axId val="-2089033352"/>
+        <c:axId val="-2089298728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2085939384"/>
+        <c:axId val="-2089033352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12776,7 +12815,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096123032"/>
+        <c:crossAx val="-2089298728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12786,7 +12825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2096123032"/>
+        <c:axId val="-2089298728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12870,7 +12909,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085939384"/>
+        <c:crossAx val="-2089033352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13117,8 +13156,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2083747400"/>
-        <c:axId val="-2085832984"/>
+        <c:axId val="-2119027768"/>
+        <c:axId val="-2089163992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13543,11 +13582,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2083747400"/>
-        <c:axId val="-2085832984"/>
+        <c:axId val="-2119027768"/>
+        <c:axId val="-2089163992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2083747400"/>
+        <c:axId val="-2119027768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13621,7 +13660,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085832984"/>
+        <c:crossAx val="-2089163992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13631,7 +13670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2085832984"/>
+        <c:axId val="-2089163992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13715,7 +13754,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083747400"/>
+        <c:crossAx val="-2119027768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13956,8 +13995,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2093993112"/>
-        <c:axId val="-2071459880"/>
+        <c:axId val="-2119113832"/>
+        <c:axId val="-2089010296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14364,11 +14403,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2093993112"/>
-        <c:axId val="-2071459880"/>
+        <c:axId val="-2119113832"/>
+        <c:axId val="-2089010296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2093993112"/>
+        <c:axId val="-2119113832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14442,7 +14481,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071459880"/>
+        <c:crossAx val="-2089010296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14452,7 +14491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071459880"/>
+        <c:axId val="-2089010296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14536,7 +14575,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093993112"/>
+        <c:crossAx val="-2119113832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14774,8 +14813,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2071399656"/>
-        <c:axId val="-2071472744"/>
+        <c:axId val="-2089106840"/>
+        <c:axId val="-2088972024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15173,11 +15212,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071399656"/>
-        <c:axId val="-2071472744"/>
+        <c:axId val="-2089106840"/>
+        <c:axId val="-2088972024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2071399656"/>
+        <c:axId val="-2089106840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15251,7 +15290,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071472744"/>
+        <c:crossAx val="-2088972024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15261,7 +15300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071472744"/>
+        <c:axId val="-2088972024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15345,7 +15384,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2071399656"/>
+        <c:crossAx val="-2089106840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15586,8 +15625,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2093987832"/>
-        <c:axId val="-2105957512"/>
+        <c:axId val="-2118330776"/>
+        <c:axId val="-2118984232"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15994,11 +16033,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2093987832"/>
-        <c:axId val="-2105957512"/>
+        <c:axId val="-2118330776"/>
+        <c:axId val="-2118984232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2093987832"/>
+        <c:axId val="-2118330776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16072,7 +16111,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2105957512"/>
+        <c:crossAx val="-2118984232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16082,7 +16121,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2105957512"/>
+        <c:axId val="-2118984232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16166,7 +16205,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093987832"/>
+        <c:crossAx val="-2118330776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16404,8 +16443,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2107559816"/>
-        <c:axId val="-2084039160"/>
+        <c:axId val="-2063924808"/>
+        <c:axId val="-2064365448"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -16803,11 +16842,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2107559816"/>
-        <c:axId val="-2084039160"/>
+        <c:axId val="-2063924808"/>
+        <c:axId val="-2064365448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2107559816"/>
+        <c:axId val="-2063924808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16881,7 +16920,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2084039160"/>
+        <c:crossAx val="-2064365448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16891,7 +16930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2084039160"/>
+        <c:axId val="-2064365448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16975,7 +17014,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107559816"/>
+        <c:crossAx val="-2063924808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17669,7 +17708,7 @@
       <sheetName val="Feuil2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="87">
           <cell r="J87">
@@ -17772,7 +17811,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -18102,8 +18141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:BJ172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="I173" sqref="I173"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="R143" sqref="R143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/stats1000_Memory.xlsx
+++ b/stats1000_Memory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-5440" yWindow="-18980" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="3340" yWindow="0" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="138">
   <si>
     <t>JAVA</t>
   </si>
@@ -420,6 +420,24 @@
   <si>
     <t>[1] 2.716203</t>
   </si>
+  <si>
+    <t>Core 6</t>
+  </si>
+  <si>
+    <t>Color4</t>
+  </si>
+  <si>
+    <t>Hxmath2</t>
+  </si>
+  <si>
+    <t>Promise2</t>
+  </si>
+  <si>
+    <t>Culture4</t>
+  </si>
+  <si>
+    <t>Math3</t>
+  </si>
 </sst>
 </file>
 
@@ -517,8 +535,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1603">
+  <cellStyleXfs count="1609">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2149,7 +2173,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1603">
+  <cellStyles count="1609">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -2951,6 +2975,9 @@
     <cellStyle name="Lien hypertexte" xfId="1597" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="1599" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="1601" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1603" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1605" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1607" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -3752,6 +3779,9 @@
     <cellStyle name="Lien hypertexte visité" xfId="1598" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="1600" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="1602" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1604" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1606" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1608" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -18141,8 +18171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:BJ172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="R143" sqref="R143"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="M125" sqref="M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -24394,9 +24424,6 @@
         <f>AVERAGE(G107:G111)</f>
         <v>50.530363443272805</v>
       </c>
-      <c r="L112" t="s">
-        <v>15</v>
-      </c>
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
       <c r="AC112" s="1"/>
@@ -24414,8 +24441,8 @@
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
-      <c r="K113">
-        <v>4</v>
+      <c r="K113" t="s">
+        <v>133</v>
       </c>
       <c r="L113" s="17">
         <v>1</v>
@@ -24708,9 +24735,6 @@
       <c r="D116" s="19"/>
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
-      <c r="L116" t="s">
-        <v>16</v>
-      </c>
       <c r="AA116" s="4"/>
       <c r="AB116" s="4"/>
       <c r="AC116" s="4"/>
@@ -24728,8 +24752,8 @@
       <c r="D117" s="3"/>
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
-      <c r="K117" s="4">
-        <v>6</v>
+      <c r="K117" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="L117" s="18">
         <v>250.77037039999999</v>
@@ -25406,9 +25430,7 @@
       <c r="D125" s="19"/>
       <c r="E125" s="19"/>
       <c r="F125" s="19"/>
-      <c r="L125" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
@@ -25434,8 +25456,8 @@
       <c r="D126" s="3"/>
       <c r="E126" s="19"/>
       <c r="F126" s="19"/>
-      <c r="K126" s="4">
-        <v>2</v>
+      <c r="K126" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L126" s="17">
         <v>1</v>
@@ -25504,9 +25526,7 @@
       <c r="J127" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L127" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
@@ -25560,8 +25580,8 @@
       <c r="J128">
         <v>0</v>
       </c>
-      <c r="K128" s="4">
-        <v>2</v>
+      <c r="K128" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="L128" s="17">
         <v>214.53424657534248</v>
@@ -25650,9 +25670,7 @@
       <c r="J129">
         <v>0</v>
       </c>
-      <c r="L129" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="L129" s="4"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
@@ -25762,8 +25780,8 @@
       <c r="J130">
         <v>0</v>
       </c>
-      <c r="K130">
-        <v>4</v>
+      <c r="K130" t="s">
+        <v>136</v>
       </c>
       <c r="L130" s="17">
         <v>2.7514792899408289</v>
@@ -25915,12 +25933,6 @@
       </c>
       <c r="J131">
         <v>0</v>
-      </c>
-      <c r="K131">
-        <v>3</v>
-      </c>
-      <c r="L131" t="s">
-        <v>21</v>
       </c>
       <c r="AA131" s="4"/>
       <c r="AB131" s="4"/>
@@ -25964,6 +25976,9 @@
       </c>
       <c r="J132">
         <v>0</v>
+      </c>
+      <c r="K132" t="s">
+        <v>137</v>
       </c>
       <c r="L132" s="17">
         <v>1.2982456140350875</v>
